--- a/Document/02. Design/01. LogicDesign/Logic_Design.xlsx
+++ b/Document/02. Design/01. LogicDesign/Logic_Design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc\My\02. Design\01. LogicDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\01. LogicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146A3A0F-81EE-4ABD-98F2-244B2361D4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4688C805-1475-4F1D-A77B-6086BB511202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15972" xr2:uid="{CEEF98DA-26BA-42DE-A0E7-30F467E095A2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEEF98DA-26BA-42DE-A0E7-30F467E095A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Phân Tích Yêu Cầu" sheetId="2" r:id="rId1"/>
@@ -806,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -814,14 +814,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -832,68 +831,128 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -905,95 +964,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,8 +1033,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>1084130</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1200,9 +1178,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
@@ -1267,15 +1245,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1334,15 +1312,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1481,9 +1459,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -1548,9 +1526,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -1615,9 +1593,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>83820</xdr:colOff>
+          <xdr:colOff>85725</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>30480</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -2039,70 +2017,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DB082C-F727-4B77-9543-2F7F2CD1578F}">
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J151" sqref="J151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="10.6640625" style="6" customWidth="1"/>
-    <col min="5" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="10.5546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="6" customWidth="1"/>
-    <col min="11" max="12" width="12.88671875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="16" style="6" customWidth="1"/>
-    <col min="15" max="15" width="16.88671875" style="6" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="19.21875" style="6" customWidth="1"/>
-    <col min="18" max="18" width="23.44140625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="14" style="6" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="21" style="6" customWidth="1"/>
-    <col min="22" max="22" width="17.77734375" style="6" customWidth="1"/>
-    <col min="23" max="23" width="22.6640625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="13.33203125" style="6" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="3" width="8.85546875" style="5"/>
+    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5" max="7" width="8.85546875" style="5"/>
+    <col min="8" max="8" width="19.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="5" customWidth="1"/>
+    <col min="11" max="12" width="12.85546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="16" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.85546875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="23.42578125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="14" style="5" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" style="5" customWidth="1"/>
+    <col min="21" max="21" width="21" style="5" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="22.7109375" style="5" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-    </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="F3" s="50" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="F3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2128,178 +2106,178 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="57" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-    </row>
-    <row r="13" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+    </row>
+    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="13" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
       <c r="J14" s="1" t="s">
         <v>0</v>
       </c>
@@ -2328,199 +2306,191 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="58" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="54"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="R15" s="43"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="55"/>
-    </row>
-    <row r="17" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="53" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="44"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="53" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-    </row>
-    <row r="19" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="53" t="s">
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-    </row>
-    <row r="20" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-    </row>
-    <row r="22" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-    </row>
-    <row r="28" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-    </row>
-    <row r="30" spans="1:24" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+    </row>
+    <row r="30" spans="1:24" ht="27" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-    </row>
-    <row r="31" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="L31" s="6" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="L31" s="5" t="s">
         <v>51</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -2560,287 +2530,272 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="L32" s="16"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="63" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
-      <c r="V33" s="55"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="64"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="16"/>
-      <c r="B34" s="60" t="s">
+      <c r="B33" s="17"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="38"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
       <c r="R34" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
-      <c r="B35" s="60" t="s">
+    <row r="35" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="11"/>
-      <c r="R35" s="7" t="s">
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="10"/>
+      <c r="R35" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
-      <c r="B36" s="60" t="s">
+    <row r="36" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="R36" s="7" t="s">
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="R36" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Y36" s="65" t="s">
+      <c r="Y36" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="Z36" s="65"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="60" t="s">
+      <c r="Z36" s="33"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="R37" s="7" t="s">
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="R37" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="65"/>
-      <c r="Z37" s="65"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
-      <c r="B38" s="60" t="s">
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="60" t="s">
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="40"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B43" s="61" t="s">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="65" t="s">
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B44" s="38"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B47" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="62" t="s">
+      <c r="C47" s="33"/>
+      <c r="D47" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-    </row>
-    <row r="52" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-    </row>
-    <row r="54" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="38" t="s">
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+    </row>
+    <row r="52" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+    </row>
+    <row r="54" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="39" t="s">
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="I56" s="6" t="s">
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="I56" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -2858,7 +2813,7 @@
       <c r="N56" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O56" s="21" t="s">
+      <c r="O56" s="18" t="s">
         <v>17</v>
       </c>
       <c r="P56" s="1" t="s">
@@ -2880,1429 +2835,1475 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
+    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
       <c r="T57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U57" s="66" t="s">
+      <c r="U57" s="35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="7" t="s">
+    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U58" s="66"/>
-    </row>
-    <row r="59" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="7" t="s">
+      <c r="U58" s="35"/>
+    </row>
+    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U59" s="66"/>
-    </row>
-    <row r="60" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="7" t="s">
+      <c r="U59" s="35"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U60" s="66"/>
-    </row>
-    <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="U60" s="35"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="T61" s="7" t="s">
+      <c r="T61" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="33" t="s">
+    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="T62" s="7" t="s">
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="27"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="T62" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="33" t="s">
+    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="T63" s="7" t="s">
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="T63" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="25"/>
-      <c r="C64" s="32" t="s">
+    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="21"/>
+      <c r="C64" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="T64" s="7" t="s">
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="T64" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="33" t="s">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="33"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="T65" s="22" t="s">
+      <c r="E65" s="27"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="T65" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="32" t="s">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="T66" s="22" t="s">
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="T66" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="32" t="s">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="T67" s="22" t="s">
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="T67" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="T68" s="22" t="s">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="T68" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="33" t="s">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="E69" s="33"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="T69" s="22" t="s">
+      <c r="E69" s="27"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="T69" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="32" t="s">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="25"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="T70" s="22" t="s">
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="T70" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="32" t="s">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="T71" s="22" t="s">
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="T71" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="32" t="s">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="32" t="s">
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="32" t="s">
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="32" t="s">
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="33" t="s">
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="33"/>
-      <c r="I76" s="33"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="33"/>
-      <c r="N76" s="33"/>
-      <c r="U76" s="67" t="s">
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="U76" s="36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="U77" s="67"/>
-    </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B78" s="33" t="s">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="U77" s="36"/>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B78" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B79" s="25"/>
-      <c r="C79" s="32" t="s">
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B79" s="21"/>
+      <c r="C79" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="U79" s="67" t="s">
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="U79" s="36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="U80" s="67"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B81" s="33" t="s">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="U80" s="36"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B81" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="25"/>
-      <c r="C82" s="32" t="s">
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B82" s="21"/>
+      <c r="C82" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="32"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-    </row>
-    <row r="88" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="15"/>
-      <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="15"/>
-      <c r="R88" s="15"/>
-    </row>
-    <row r="90" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="38" t="s">
+      <c r="D82" s="28"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="28"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
+      <c r="J82" s="28"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+    </row>
+    <row r="88" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+    </row>
+    <row r="90" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="A90" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="39" t="s">
+      <c r="B90" s="29"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
-      <c r="G91" s="41"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B94" s="12" t="s">
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="32"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B94" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C95" s="47" t="s">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C95" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48"/>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48"/>
-      <c r="J95" s="49"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="34" t="s">
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="M95" s="27"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="24"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C96" s="43" t="s">
+      <c r="M95" s="22"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="20"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C96" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="34"/>
-      <c r="M96" s="27"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="30"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="30"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="24"/>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="30"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="30"/>
-      <c r="H98" s="30"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="30"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="27"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="24"/>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="30"/>
-      <c r="H99" s="30"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="30"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="27"/>
-      <c r="N99" s="27"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="24"/>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C100" s="46" t="s">
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="53"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="20"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="20"/>
+      <c r="P98" s="20"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="20"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C100" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D100" s="46"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="28"/>
-      <c r="M100" s="28"/>
-      <c r="N100" s="27"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="24"/>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C101" s="28"/>
-      <c r="D101" s="43" t="s">
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="20"/>
+      <c r="P100" s="20"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C101" s="23"/>
+      <c r="D101" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="28"/>
-      <c r="M101" s="28"/>
-      <c r="N101" s="27"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="24"/>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="43" t="s">
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="20"/>
+      <c r="P101" s="20"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="43"/>
-      <c r="M102" s="43"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="24"/>
-    </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="43" t="s">
+      <c r="F102" s="26"/>
+      <c r="G102" s="26"/>
+      <c r="H102" s="26"/>
+      <c r="I102" s="26"/>
+      <c r="J102" s="26"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="20"/>
+      <c r="P102" s="20"/>
+    </row>
+    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F103" s="43"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="43"/>
-      <c r="K103" s="43"/>
-      <c r="L103" s="43"/>
-      <c r="M103" s="43"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="24"/>
-    </row>
-    <row r="104" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="43" t="s">
+      <c r="F103" s="26"/>
+      <c r="G103" s="26"/>
+      <c r="H103" s="26"/>
+      <c r="I103" s="26"/>
+      <c r="J103" s="26"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="26"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="20"/>
+      <c r="P103" s="20"/>
+    </row>
+    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C104" s="23"/>
+      <c r="D104" s="23"/>
+      <c r="E104" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="28"/>
-      <c r="M104" s="28"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="24"/>
-      <c r="P104" s="24"/>
-    </row>
-    <row r="105" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="35" t="s">
+      <c r="F104" s="26"/>
+      <c r="G104" s="26"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="26"/>
+      <c r="J104" s="26"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="20"/>
+      <c r="P104" s="20"/>
+    </row>
+    <row r="105" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
-      <c r="M105" s="28"/>
-      <c r="N105" s="27"/>
-      <c r="O105" s="24"/>
-      <c r="P105" s="24"/>
-    </row>
-    <row r="106" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="43" t="s">
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="55"/>
+      <c r="J105" s="56"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
+      <c r="M105" s="23"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="20"/>
+      <c r="P105" s="20"/>
+    </row>
+    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C106" s="23"/>
+      <c r="D106" s="23"/>
+      <c r="E106" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="28"/>
-      <c r="M106" s="28"/>
-      <c r="N106" s="27"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="24"/>
-    </row>
-    <row r="107" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="27"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="27"/>
-      <c r="N107" s="27"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="24"/>
-    </row>
-    <row r="108" spans="3:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="27"/>
-      <c r="D108" s="44" t="s">
+      <c r="F106" s="26"/>
+      <c r="G106" s="26"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
+      <c r="M106" s="23"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="20"/>
+      <c r="P106" s="20"/>
+    </row>
+    <row r="107" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="22"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="20"/>
+      <c r="P107" s="20"/>
+    </row>
+    <row r="108" spans="3:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="22"/>
+      <c r="D108" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="E108" s="44"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="27"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="27"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="24"/>
-      <c r="P108" s="24"/>
-    </row>
-    <row r="109" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="42" t="s">
+      <c r="E108" s="58"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="20"/>
+      <c r="P108" s="20"/>
+    </row>
+    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="27"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="27"/>
-      <c r="N109" s="27"/>
-      <c r="O109" s="24"/>
-      <c r="P109" s="24"/>
-    </row>
-    <row r="110" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="42" t="s">
+      <c r="F109" s="57"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="20"/>
+      <c r="P109" s="20"/>
+    </row>
+    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="F110" s="42"/>
-      <c r="G110" s="42"/>
-      <c r="H110" s="42"/>
-      <c r="I110" s="42"/>
-      <c r="J110" s="42"/>
-      <c r="K110" s="27"/>
-      <c r="L110" s="27"/>
-      <c r="M110" s="27"/>
-      <c r="N110" s="27"/>
-      <c r="O110" s="24"/>
-      <c r="P110" s="24"/>
-    </row>
-    <row r="111" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="27"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="27"/>
-      <c r="N111" s="27"/>
-      <c r="O111" s="24"/>
-      <c r="P111" s="24"/>
-    </row>
-    <row r="112" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C112" s="45" t="s">
+      <c r="F110" s="57"/>
+      <c r="G110" s="57"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="57"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="20"/>
+      <c r="P110" s="20"/>
+    </row>
+    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="20"/>
+      <c r="P111" s="20"/>
+    </row>
+    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C112" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="D112" s="45"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="27"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="27"/>
-      <c r="N112" s="27"/>
-      <c r="O112" s="24"/>
-      <c r="P112" s="24"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C113" s="27"/>
-      <c r="D113" s="42" t="s">
+      <c r="D112" s="59"/>
+      <c r="E112" s="59"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="20"/>
+      <c r="P112" s="20"/>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C113" s="22"/>
+      <c r="D113" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="E113" s="42"/>
-      <c r="F113" s="42"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
-      <c r="K113" s="27"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="27"/>
-      <c r="N113" s="27"/>
-      <c r="O113" s="24"/>
-      <c r="P113" s="24"/>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="42" t="s">
+      <c r="E113" s="57"/>
+      <c r="F113" s="57"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="20"/>
+      <c r="P113" s="20"/>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="F114" s="42"/>
-      <c r="G114" s="42"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="42"/>
-      <c r="K114" s="42"/>
-      <c r="L114" s="42"/>
-      <c r="M114" s="27"/>
-      <c r="N114" s="27"/>
-      <c r="O114" s="24"/>
-      <c r="P114" s="24"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C115" s="27"/>
-      <c r="D115" s="42" t="s">
+      <c r="F114" s="57"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="57"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="57"/>
+      <c r="L114" s="57"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="20"/>
+      <c r="P114" s="20"/>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C115" s="22"/>
+      <c r="D115" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="E115" s="42"/>
-      <c r="F115" s="42"/>
-      <c r="G115" s="42"/>
-      <c r="H115" s="42"/>
-      <c r="I115" s="42"/>
-      <c r="J115" s="27"/>
-      <c r="K115" s="27"/>
-      <c r="L115" s="27"/>
-      <c r="M115" s="27"/>
-      <c r="N115" s="27"/>
-      <c r="O115" s="24"/>
-      <c r="P115" s="24"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C116" s="27"/>
-      <c r="D116" s="42" t="s">
+      <c r="E115" s="57"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="57"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="57"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="20"/>
+      <c r="P115" s="20"/>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C116" s="22"/>
+      <c r="D116" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="E116" s="42"/>
-      <c r="F116" s="42"/>
-      <c r="G116" s="42"/>
-      <c r="H116" s="42"/>
-      <c r="I116" s="42"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="42"/>
-      <c r="L116" s="42"/>
-      <c r="M116" s="42"/>
-      <c r="N116" s="42"/>
-      <c r="O116" s="24"/>
-      <c r="P116" s="24"/>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C117" s="27"/>
-      <c r="D117" s="42" t="s">
+      <c r="E116" s="57"/>
+      <c r="F116" s="57"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="57"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+      <c r="L116" s="57"/>
+      <c r="M116" s="57"/>
+      <c r="N116" s="57"/>
+      <c r="O116" s="20"/>
+      <c r="P116" s="20"/>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C117" s="22"/>
+      <c r="D117" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="E117" s="42"/>
-      <c r="F117" s="42"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="42"/>
-      <c r="L117" s="42"/>
-      <c r="M117" s="42"/>
-      <c r="N117" s="42"/>
-      <c r="O117" s="24"/>
-      <c r="P117" s="24"/>
-    </row>
-    <row r="122" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="15"/>
-      <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-      <c r="N122" s="15"/>
-      <c r="O122" s="15"/>
-      <c r="P122" s="15"/>
-      <c r="Q122" s="15"/>
-      <c r="R122" s="15"/>
-    </row>
-    <row r="124" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="38" t="s">
+      <c r="E117" s="57"/>
+      <c r="F117" s="57"/>
+      <c r="G117" s="57"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="57"/>
+      <c r="J117" s="57"/>
+      <c r="K117" s="57"/>
+      <c r="L117" s="57"/>
+      <c r="M117" s="57"/>
+      <c r="N117" s="57"/>
+      <c r="O117" s="20"/>
+      <c r="P117" s="20"/>
+    </row>
+    <row r="122" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="14"/>
+      <c r="N122" s="14"/>
+      <c r="O122" s="14"/>
+      <c r="P122" s="14"/>
+      <c r="Q122" s="14"/>
+      <c r="R122" s="14"/>
+    </row>
+    <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="A124" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B124" s="38"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="38"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A125" s="39" t="s">
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B125" s="40"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="40"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="41"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B127" s="12" t="s">
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="32"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B127" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C128" s="33" t="s">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C128" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="33"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="21"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="21"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C129" s="25"/>
-      <c r="D129" s="32" t="s">
+    <row r="129" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C129" s="21"/>
+      <c r="D129" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="E129" s="32"/>
-      <c r="F129" s="32"/>
-      <c r="G129" s="32"/>
-      <c r="H129" s="32"/>
-      <c r="I129" s="32"/>
-      <c r="J129" s="32"/>
-      <c r="K129" s="32"/>
-      <c r="L129" s="25"/>
+      <c r="E129" s="28"/>
+      <c r="F129" s="28"/>
+      <c r="G129" s="28"/>
+      <c r="H129" s="28"/>
+      <c r="I129" s="28"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="21"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="25"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="25"/>
-      <c r="L130" s="25"/>
+    <row r="130" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C130" s="21"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="21"/>
+      <c r="F130" s="21"/>
+      <c r="G130" s="21"/>
+      <c r="H130" s="21"/>
+      <c r="I130" s="21"/>
+      <c r="J130" s="21"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="21"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C131" s="33" t="s">
+    <row r="131" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C131" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="25"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="25"/>
-      <c r="L131" s="25"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="21"/>
+      <c r="H131" s="21"/>
+      <c r="I131" s="21"/>
+      <c r="J131" s="21"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="21"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C132" s="25"/>
-      <c r="D132" s="32" t="s">
+    <row r="132" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C132" s="21"/>
+      <c r="D132" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="E132" s="32"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="25"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
-      <c r="J132" s="25"/>
-      <c r="K132" s="25"/>
-      <c r="L132" s="25"/>
+      <c r="E132" s="28"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="21"/>
+      <c r="H132" s="21"/>
+      <c r="I132" s="21"/>
+      <c r="J132" s="21"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="21"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="31" t="s">
+    <row r="133" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C133" s="21"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="F133" s="33" t="s">
+      <c r="F133" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="G133" s="33"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
-      <c r="K133" s="25"/>
-      <c r="L133" s="25"/>
+      <c r="G133" s="27"/>
+      <c r="H133" s="21"/>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="21"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="32" t="s">
+    <row r="134" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="F134" s="32"/>
-      <c r="G134" s="32"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="32"/>
-      <c r="J134" s="32"/>
-      <c r="K134" s="25"/>
-      <c r="L134" s="25"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="31" t="s">
+    <row r="135" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C135" s="21"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F135" s="33" t="s">
+      <c r="F135" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
-      <c r="I135" s="33"/>
-      <c r="J135" s="33"/>
-      <c r="K135" s="33"/>
-      <c r="L135" s="25"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="21"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="25"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="25"/>
-      <c r="K136" s="25"/>
-      <c r="L136" s="25"/>
+    <row r="136" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C136" s="21"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="21"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="21"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C137" s="33" t="s">
+    <row r="137" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C137" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="25"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
-      <c r="J137" s="25"/>
-      <c r="K137" s="25"/>
-      <c r="L137" s="25"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="21"/>
+      <c r="H137" s="21"/>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="21"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C138" s="25"/>
-      <c r="D138" s="32" t="s">
+    <row r="138" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C138" s="21"/>
+      <c r="D138" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E138" s="32"/>
-      <c r="F138" s="32"/>
-      <c r="G138" s="32"/>
-      <c r="H138" s="32"/>
-      <c r="I138" s="32"/>
-      <c r="J138" s="32"/>
-      <c r="K138" s="32"/>
-      <c r="L138" s="25"/>
+      <c r="E138" s="28"/>
+      <c r="F138" s="28"/>
+      <c r="G138" s="28"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
+      <c r="J138" s="28"/>
+      <c r="K138" s="28"/>
+      <c r="L138" s="21"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C139" s="25"/>
-      <c r="D139" s="32" t="s">
+    <row r="139" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C139" s="21"/>
+      <c r="D139" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E139" s="32"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="32"/>
-      <c r="H139" s="32"/>
-      <c r="I139" s="32"/>
-      <c r="J139" s="32"/>
-      <c r="K139" s="32"/>
-      <c r="L139" s="25"/>
+      <c r="E139" s="28"/>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+      <c r="H139" s="28"/>
+      <c r="I139" s="28"/>
+      <c r="J139" s="28"/>
+      <c r="K139" s="28"/>
+      <c r="L139" s="21"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C140" s="25"/>
-      <c r="D140" s="32" t="s">
+    <row r="140" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C140" s="21"/>
+      <c r="D140" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
-      <c r="G140" s="32"/>
-      <c r="H140" s="32"/>
-      <c r="I140" s="32"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="25"/>
-      <c r="L140" s="25"/>
+      <c r="E140" s="28"/>
+      <c r="F140" s="28"/>
+      <c r="G140" s="28"/>
+      <c r="H140" s="28"/>
+      <c r="I140" s="28"/>
+      <c r="J140" s="21"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="21"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="25"/>
-      <c r="H141" s="25"/>
-      <c r="I141" s="25"/>
-      <c r="J141" s="25"/>
-      <c r="K141" s="25"/>
-      <c r="L141" s="25"/>
+    <row r="141" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="21"/>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
+      <c r="J141" s="21"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="21"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C142" s="33" t="s">
+    <row r="142" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C142" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="25"/>
-      <c r="H142" s="25"/>
-      <c r="I142" s="25"/>
-      <c r="J142" s="25"/>
-      <c r="K142" s="25"/>
-      <c r="L142" s="25"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="21"/>
+      <c r="I142" s="21"/>
+      <c r="J142" s="21"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="21"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C143" s="25"/>
-      <c r="D143" s="32" t="s">
+    <row r="143" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C143" s="21"/>
+      <c r="D143" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32"/>
-      <c r="G143" s="32"/>
-      <c r="H143" s="32"/>
-      <c r="I143" s="32"/>
-      <c r="J143" s="32"/>
-      <c r="K143" s="32"/>
-      <c r="L143" s="32"/>
+      <c r="E143" s="28"/>
+      <c r="F143" s="28"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="28"/>
+      <c r="I143" s="28"/>
+      <c r="J143" s="28"/>
+      <c r="K143" s="28"/>
+      <c r="L143" s="28"/>
       <c r="M143"/>
     </row>
-    <row r="146" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="15"/>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="15"/>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="15"/>
-      <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-      <c r="N146" s="15"/>
-      <c r="O146" s="15"/>
-      <c r="P146" s="15"/>
-      <c r="Q146" s="15"/>
-      <c r="R146" s="15"/>
-    </row>
-    <row r="148" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A148" s="38" t="s">
+    <row r="146" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="14"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="14"/>
+      <c r="L146" s="14"/>
+      <c r="M146" s="14"/>
+      <c r="N146" s="14"/>
+      <c r="O146" s="14"/>
+      <c r="P146" s="14"/>
+      <c r="Q146" s="14"/>
+      <c r="R146" s="14"/>
+    </row>
+    <row r="148" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="A148" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="38"/>
-      <c r="C148" s="38"/>
-      <c r="D148" s="38"/>
-      <c r="E148" s="38"/>
-      <c r="F148" s="38"/>
-      <c r="G148" s="38"/>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A149" s="39" t="s">
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="B149" s="40"/>
-      <c r="C149" s="40"/>
-      <c r="D149" s="40"/>
-      <c r="E149" s="40"/>
-      <c r="F149" s="40"/>
-      <c r="G149" s="41"/>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B151" s="23" t="s">
+      <c r="B149" s="31"/>
+      <c r="C149" s="31"/>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="32"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B151" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C152" s="46" t="s">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C152" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D152" s="46"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
-      <c r="H152" s="29"/>
-      <c r="I152" s="29"/>
-      <c r="J152" s="29"/>
-      <c r="K152" s="29"/>
-      <c r="L152" s="29"/>
-      <c r="M152" s="29"/>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C153" s="29"/>
-      <c r="D153" s="43" t="s">
+      <c r="D152" s="25"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="23"/>
+      <c r="G152" s="23"/>
+      <c r="H152" s="23"/>
+      <c r="I152" s="23"/>
+      <c r="J152" s="23"/>
+      <c r="K152" s="23"/>
+      <c r="L152" s="23"/>
+      <c r="M152" s="23"/>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C153" s="23"/>
+      <c r="D153" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="I153" s="43"/>
-      <c r="J153" s="43"/>
-      <c r="K153" s="43"/>
-      <c r="L153" s="43"/>
-      <c r="M153" s="43"/>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C154" s="29"/>
-      <c r="D154" s="43" t="s">
+      <c r="E153" s="26"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
+      <c r="H153" s="26"/>
+      <c r="I153" s="26"/>
+      <c r="J153" s="26"/>
+      <c r="K153" s="26"/>
+      <c r="L153" s="26"/>
+      <c r="M153" s="26"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C154" s="23"/>
+      <c r="D154" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E154" s="43"/>
-      <c r="F154" s="43"/>
-      <c r="G154" s="43"/>
-      <c r="H154" s="43"/>
-      <c r="I154" s="43"/>
-      <c r="J154" s="43"/>
-      <c r="K154" s="29"/>
-      <c r="L154" s="29"/>
-      <c r="M154" s="29"/>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C155" s="29"/>
-      <c r="D155" s="43" t="s">
+      <c r="E154" s="26"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
+      <c r="H154" s="26"/>
+      <c r="I154" s="26"/>
+      <c r="J154" s="26"/>
+      <c r="K154" s="23"/>
+      <c r="L154" s="23"/>
+      <c r="M154" s="23"/>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C155" s="23"/>
+      <c r="D155" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E155" s="43"/>
-      <c r="F155" s="43"/>
-      <c r="G155" s="43"/>
-      <c r="H155" s="43"/>
-      <c r="I155" s="43"/>
-      <c r="J155" s="43"/>
-      <c r="K155" s="29"/>
-      <c r="L155" s="29"/>
-      <c r="M155" s="29"/>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C156" s="29"/>
-      <c r="D156" s="43" t="s">
+      <c r="E155" s="26"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="26"/>
+      <c r="H155" s="26"/>
+      <c r="I155" s="26"/>
+      <c r="J155" s="26"/>
+      <c r="K155" s="23"/>
+      <c r="L155" s="23"/>
+      <c r="M155" s="23"/>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C156" s="23"/>
+      <c r="D156" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="E156" s="43"/>
-      <c r="F156" s="43"/>
-      <c r="G156" s="43"/>
-      <c r="H156" s="43"/>
-      <c r="I156" s="43"/>
-      <c r="J156" s="43"/>
-      <c r="K156" s="43"/>
-      <c r="L156" s="29"/>
-      <c r="M156" s="29"/>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C157" s="29"/>
-      <c r="D157" s="43" t="s">
+      <c r="E156" s="26"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="26"/>
+      <c r="H156" s="26"/>
+      <c r="I156" s="26"/>
+      <c r="J156" s="26"/>
+      <c r="K156" s="26"/>
+      <c r="L156" s="23"/>
+      <c r="M156" s="23"/>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C157" s="23"/>
+      <c r="D157" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E157" s="43"/>
-      <c r="F157" s="43"/>
-      <c r="G157" s="43"/>
-      <c r="H157" s="43"/>
-      <c r="I157" s="43"/>
-      <c r="J157" s="43"/>
-      <c r="K157" s="43"/>
-      <c r="L157" s="29"/>
-      <c r="M157" s="29"/>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C158" s="29"/>
-      <c r="D158" s="43" t="s">
+      <c r="E157" s="26"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="26"/>
+      <c r="H157" s="26"/>
+      <c r="I157" s="26"/>
+      <c r="J157" s="26"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="23"/>
+      <c r="M157" s="23"/>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C158" s="23"/>
+      <c r="D158" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="E158" s="43"/>
-      <c r="F158" s="43"/>
-      <c r="G158" s="43"/>
-      <c r="H158" s="43"/>
-      <c r="I158" s="43"/>
-      <c r="J158" s="43"/>
-      <c r="K158" s="43"/>
-      <c r="L158" s="29"/>
-      <c r="M158" s="29"/>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C159" s="29"/>
-      <c r="D159" s="43" t="s">
+      <c r="E158" s="26"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="26"/>
+      <c r="H158" s="26"/>
+      <c r="I158" s="26"/>
+      <c r="J158" s="26"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="23"/>
+      <c r="M158" s="23"/>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C159" s="23"/>
+      <c r="D159" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E159" s="43"/>
-      <c r="F159" s="43"/>
-      <c r="G159" s="43"/>
-      <c r="H159" s="29"/>
-      <c r="I159" s="29"/>
-      <c r="J159" s="29"/>
-      <c r="K159" s="29"/>
-      <c r="L159" s="29"/>
-      <c r="M159" s="29"/>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C160" s="29"/>
-      <c r="D160" s="43" t="s">
+      <c r="E159" s="26"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="26"/>
+      <c r="H159" s="23"/>
+      <c r="I159" s="23"/>
+      <c r="J159" s="23"/>
+      <c r="K159" s="23"/>
+      <c r="L159" s="23"/>
+      <c r="M159" s="23"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C160" s="23"/>
+      <c r="D160" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E160" s="43"/>
-      <c r="F160" s="43"/>
-      <c r="G160" s="43"/>
-      <c r="H160" s="43"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="29"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="29"/>
+      <c r="E160" s="26"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="26"/>
+      <c r="H160" s="26"/>
+      <c r="I160" s="23"/>
+      <c r="J160" s="23"/>
+      <c r="K160" s="23"/>
+      <c r="L160" s="23"/>
+      <c r="M160" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="D153:M153"/>
-    <mergeCell ref="D154:J154"/>
-    <mergeCell ref="D155:J155"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="D158:K158"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="D160:H160"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C79:L79"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="E76:N76"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="D139:K139"/>
+    <mergeCell ref="D140:I140"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="D143:L143"/>
+    <mergeCell ref="E134:J134"/>
+    <mergeCell ref="F135:K135"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="D138:K138"/>
+    <mergeCell ref="D115:I115"/>
+    <mergeCell ref="D116:N116"/>
+    <mergeCell ref="D117:N117"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="E110:J110"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="E102:M102"/>
+    <mergeCell ref="E103:M103"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:L44"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y36:Z37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B37:L37"/>
     <mergeCell ref="B47:C48"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A55:G55"/>
@@ -4321,55 +4322,20 @@
     <mergeCell ref="E70:K70"/>
     <mergeCell ref="F71:H71"/>
     <mergeCell ref="F72:H72"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:L44"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y36:Z37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C79:L79"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="E76:N76"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="A149:G149"/>
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A91:G91"/>
     <mergeCell ref="C96:J96"/>
     <mergeCell ref="C100:G100"/>
     <mergeCell ref="C95:J95"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B18:H18"/>
     <mergeCell ref="C128:H128"/>
     <mergeCell ref="D129:K129"/>
     <mergeCell ref="C131:F131"/>
@@ -4380,27 +4346,15 @@
     <mergeCell ref="A125:G125"/>
     <mergeCell ref="D113:H113"/>
     <mergeCell ref="E114:L114"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D116:N116"/>
-    <mergeCell ref="D117:N117"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="E109:H109"/>
-    <mergeCell ref="E110:J110"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="E102:M102"/>
-    <mergeCell ref="E103:M103"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="D139:K139"/>
-    <mergeCell ref="D140:I140"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="D143:L143"/>
-    <mergeCell ref="E134:J134"/>
-    <mergeCell ref="F135:K135"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="D138:K138"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="D153:M153"/>
+    <mergeCell ref="D154:J154"/>
+    <mergeCell ref="D155:J155"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="D158:K158"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="D160:H160"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4417,9 +4371,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
@@ -4439,15 +4393,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>419100</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4461,15 +4415,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>419100</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>60960</xdr:rowOff>
+                    <xdr:rowOff>57150</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4483,9 +4437,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -4505,9 +4459,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -4527,9 +4481,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>83820</xdr:colOff>
+                    <xdr:colOff>85725</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>30480</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>

--- a/Document/02. Design/01. LogicDesign/Logic_Design.xlsx
+++ b/Document/02. Design/01. LogicDesign/Logic_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\01. LogicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4688C805-1475-4F1D-A77B-6086BB511202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7739F5E0-B736-4BDB-A3FF-59536F48594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEEF98DA-26BA-42DE-A0E7-30F467E095A2}"/>
   </bookViews>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>Yêu Cầu :</t>
-  </si>
-  <si>
-    <t>1. Hiển thị list danh sách các ứng viên đã duyệt OK</t>
   </si>
   <si>
     <t>Check All</t>
@@ -592,6 +589,9 @@
   </si>
   <si>
     <t>Ứng viên nào đã gửi offer thì hiển thị button [Cập nhật]</t>
+  </si>
+  <si>
+    <t>1. Hiển thị list danh sách các ứng viên đã duyệt OK (Trạng Thái : Duyệt CV)</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -802,11 +802,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,69 +888,93 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -940,18 +984,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,14 +996,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,11 +1044,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1178,15 +1220,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>224270</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>184439</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
+          <xdr:colOff>557645</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>32905</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1245,15 +1287,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>224271</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>2598</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
+          <xdr:colOff>557646</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>31173</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1312,15 +1354,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>193098</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>22513</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1377,13 +1419,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>30773</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1573529</xdr:colOff>
+      <xdr:colOff>1538654</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1400,8 +1442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13582650" y="7048500"/>
-          <a:ext cx="1535429" cy="285750"/>
+          <a:off x="14281638" y="7011865"/>
+          <a:ext cx="1507881" cy="274760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2017,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DB082C-F727-4B77-9543-2F7F2CD1578F}">
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2071,8 @@
     <col min="8" max="8" width="19.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="5" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" style="5" customWidth="1"/>
-    <col min="11" max="12" width="12.85546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="22" style="5" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="5" customWidth="1"/>
     <col min="14" max="14" width="16" style="5" customWidth="1"/>
     <col min="15" max="15" width="16.85546875" style="5" customWidth="1"/>
@@ -2049,38 +2092,38 @@
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="F3" s="49" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="F3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2258,15 +2301,15 @@
       <c r="R11" s="14"/>
     </row>
     <row r="13" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
     </row>
     <row r="14" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -2307,85 +2350,79 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
       <c r="Q15" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="43"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
+      <c r="B16" s="61"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
       <c r="Q16" s="42"/>
-      <c r="R16" s="44"/>
+      <c r="R16" s="37"/>
     </row>
     <row r="17" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="B17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="B18" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
     </row>
     <row r="21" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
@@ -2470,28 +2507,28 @@
       <c r="R28" s="14"/>
     </row>
     <row r="30" spans="1:24" ht="27" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
       <c r="L31" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>0</v>
@@ -2531,49 +2568,49 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
       <c r="R32" s="41"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="39" t="s">
-        <v>60</v>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="49" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="63"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
       <c r="R33" s="42"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="38"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="47"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
+      <c r="B34" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -2584,88 +2621,88 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
+      <c r="B35" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
       <c r="K35" s="16"/>
       <c r="L35" s="10"/>
       <c r="R35" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="B36" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
       <c r="R36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y36" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z36" s="50"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="R37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Y36" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z36" s="33"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="R37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
+      <c r="Y37" s="50"/>
+      <c r="Z37" s="50"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="B38" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
       <c r="J38" s="40"/>
       <c r="K38" s="40"/>
       <c r="L38" s="40"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
+      <c r="B39" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
@@ -2689,62 +2726,62 @@
       <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B44" s="38"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B47" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
+      <c r="B47" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="50"/>
+      <c r="D47" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
     </row>
     <row r="52" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
@@ -2766,26 +2803,26 @@
       <c r="R52" s="14"/>
     </row>
     <row r="54" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="32"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
@@ -2796,7 +2833,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="I56" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>0</v>
@@ -2817,22 +2854,22 @@
         <v>17</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="S56" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>14</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2856,8 +2893,8 @@
       <c r="T57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U57" s="35" t="s">
-        <v>71</v>
+      <c r="U57" s="51" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2882,7 +2919,7 @@
       <c r="T58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U58" s="35"/>
+      <c r="U58" s="51"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
@@ -2906,7 +2943,7 @@
       <c r="T59" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U59" s="35"/>
+      <c r="U59" s="51"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J60" s="9"/>
@@ -2922,7 +2959,7 @@
       <c r="T60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U60" s="35"/>
+      <c r="U60" s="51"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
@@ -2933,20 +2970,20 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="10"/>
+      <c r="B62" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
+      <c r="M62" s="67"/>
       <c r="N62" s="10"/>
       <c r="T62" s="6" t="s">
         <v>23</v>
@@ -2954,7 +2991,7 @@
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -2974,12 +3011,12 @@
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="21"/>
-      <c r="C64" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
+      <c r="C64" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
@@ -2996,7 +3033,7 @@
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
       <c r="D65" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="21"/>
@@ -3016,14 +3053,14 @@
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
-      <c r="E66" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
+      <c r="E66" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
       <c r="M66" s="10"/>
@@ -3036,14 +3073,14 @@
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
-      <c r="E67" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="E67" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
       <c r="M67" s="10"/>
@@ -3074,7 +3111,7 @@
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
       <c r="D69" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E69" s="27"/>
       <c r="F69" s="21"/>
@@ -3094,15 +3131,15 @@
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
-      <c r="E70" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
+      <c r="E70" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
       <c r="L70" s="21"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
@@ -3115,11 +3152,11 @@
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
-      <c r="F71" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
+      <c r="F71" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
       <c r="K71" s="21"/>
@@ -3135,11 +3172,11 @@
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
-      <c r="F72" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
+      <c r="F72" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
       <c r="K72" s="21"/>
@@ -3152,12 +3189,12 @@
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
-      <c r="F73" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
+      <c r="F73" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
       <c r="J73" s="21"/>
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
@@ -3169,12 +3206,12 @@
       <c r="C74" s="21"/>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
-      <c r="F74" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
+      <c r="F74" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
       <c r="J74" s="21"/>
       <c r="K74" s="21"/>
       <c r="L74" s="21"/>
@@ -3186,13 +3223,13 @@
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
-      <c r="F75" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
+      <c r="F75" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
       <c r="M75" s="10"/>
@@ -3203,7 +3240,7 @@
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
       <c r="E76" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F76" s="27"/>
       <c r="G76" s="27"/>
@@ -3214,8 +3251,8 @@
       <c r="L76" s="27"/>
       <c r="M76" s="27"/>
       <c r="N76" s="27"/>
-      <c r="U76" s="36" t="s">
-        <v>73</v>
+      <c r="U76" s="52" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.25">
@@ -3232,11 +3269,11 @@
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
-      <c r="U77" s="36"/>
+      <c r="U77" s="52"/>
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B78" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -3253,22 +3290,22 @@
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" s="21"/>
-      <c r="C79" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
+      <c r="C79" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
-      <c r="U79" s="36" t="s">
-        <v>72</v>
+      <c r="U79" s="52" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.25">
@@ -3285,11 +3322,11 @@
       <c r="L80" s="21"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
-      <c r="U80" s="36"/>
+      <c r="U80" s="52"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B81" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -3306,17 +3343,17 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B82" s="21"/>
-      <c r="C82" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
+      <c r="C82" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
       <c r="L82" s="21"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
@@ -3341,26 +3378,26 @@
       <c r="R88" s="14"/>
     </row>
     <row r="90" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A90" s="29" t="s">
+      <c r="A90" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="32"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="46"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
@@ -3368,37 +3405,37 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C95" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="48"/>
+      <c r="C95" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="55"/>
+      <c r="J95" s="56"/>
       <c r="K95" s="22"/>
-      <c r="L95" s="53" t="s">
-        <v>109</v>
+      <c r="L95" s="57" t="s">
+        <v>108</v>
       </c>
       <c r="M95" s="22"/>
       <c r="O95" s="20"/>
       <c r="P95" s="20"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C96" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="26"/>
-      <c r="G96" s="26"/>
-      <c r="H96" s="26"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
+      <c r="C96" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
       <c r="K96" s="22"/>
-      <c r="L96" s="53"/>
+      <c r="L96" s="57"/>
       <c r="M96" s="22"/>
       <c r="N96" s="22"/>
       <c r="O96" s="20"/>
@@ -3453,13 +3490,13 @@
       <c r="P99" s="20"/>
     </row>
     <row r="100" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C100" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
+      <c r="C100" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
       <c r="H100" s="23"/>
       <c r="I100" s="23"/>
       <c r="J100" s="23"/>
@@ -3472,11 +3509,11 @@
     </row>
     <row r="101" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C101" s="23"/>
-      <c r="D101" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
+      <c r="D101" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
       <c r="G101" s="23"/>
       <c r="H101" s="23"/>
       <c r="I101" s="23"/>
@@ -3491,17 +3528,17 @@
     <row r="102" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
-      <c r="E102" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="26"/>
-      <c r="M102" s="26"/>
+      <c r="E102" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
       <c r="N102" s="22"/>
       <c r="O102" s="20"/>
       <c r="P102" s="20"/>
@@ -3509,17 +3546,17 @@
     <row r="103" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
-      <c r="E103" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="26"/>
-      <c r="L103" s="26"/>
-      <c r="M103" s="26"/>
+      <c r="E103" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
       <c r="N103" s="22"/>
       <c r="O103" s="20"/>
       <c r="P103" s="20"/>
@@ -3527,15 +3564,15 @@
     <row r="104" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
-      <c r="E104" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="26"/>
+      <c r="E104" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
       <c r="L104" s="23"/>
       <c r="M104" s="23"/>
       <c r="N104" s="22"/>
@@ -3545,14 +3582,14 @@
     <row r="105" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
-      <c r="E105" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="F105" s="55"/>
-      <c r="G105" s="55"/>
-      <c r="H105" s="55"/>
-      <c r="I105" s="55"/>
-      <c r="J105" s="56"/>
+      <c r="E105" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="60"/>
       <c r="K105" s="23"/>
       <c r="L105" s="23"/>
       <c r="M105" s="23"/>
@@ -3563,11 +3600,11 @@
     <row r="106" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
-      <c r="E106" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
+      <c r="E106" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
       <c r="J106" s="23"/>
@@ -3596,10 +3633,10 @@
     </row>
     <row r="108" spans="3:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="22"/>
-      <c r="D108" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E108" s="58"/>
+      <c r="D108" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E108" s="30"/>
       <c r="F108" s="22"/>
       <c r="G108" s="22"/>
       <c r="H108" s="22"/>
@@ -3615,12 +3652,12 @@
     <row r="109" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
-      <c r="E109" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="F109" s="57"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="57"/>
+      <c r="E109" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
       <c r="I109" s="22"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
@@ -3633,14 +3670,14 @@
     <row r="110" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
-      <c r="E110" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="F110" s="57"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="57"/>
-      <c r="I110" s="57"/>
-      <c r="J110" s="57"/>
+      <c r="E110" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
       <c r="M110" s="22"/>
@@ -3665,11 +3702,11 @@
       <c r="P111" s="20"/>
     </row>
     <row r="112" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C112" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="D112" s="59"/>
-      <c r="E112" s="59"/>
+      <c r="C112" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
       <c r="F112" s="22"/>
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
@@ -3684,13 +3721,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C113" s="22"/>
-      <c r="D113" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="E113" s="57"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="57"/>
+      <c r="D113" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
       <c r="I113" s="22"/>
       <c r="J113" s="22"/>
       <c r="K113" s="22"/>
@@ -3703,16 +3740,16 @@
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
-      <c r="E114" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="F114" s="57"/>
-      <c r="G114" s="57"/>
-      <c r="H114" s="57"/>
-      <c r="I114" s="57"/>
-      <c r="J114" s="57"/>
-      <c r="K114" s="57"/>
-      <c r="L114" s="57"/>
+      <c r="E114" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="28"/>
       <c r="M114" s="22"/>
       <c r="N114" s="22"/>
       <c r="O114" s="20"/>
@@ -3720,14 +3757,14 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C115" s="22"/>
-      <c r="D115" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="E115" s="57"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="57"/>
-      <c r="I115" s="57"/>
+      <c r="D115" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22"/>
       <c r="L115" s="22"/>
@@ -3738,37 +3775,37 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C116" s="22"/>
-      <c r="D116" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="E116" s="57"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="57"/>
-      <c r="H116" s="57"/>
-      <c r="I116" s="57"/>
-      <c r="J116" s="57"/>
-      <c r="K116" s="57"/>
-      <c r="L116" s="57"/>
-      <c r="M116" s="57"/>
-      <c r="N116" s="57"/>
+      <c r="D116" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="28"/>
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C117" s="22"/>
-      <c r="D117" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="E117" s="57"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="57"/>
-      <c r="I117" s="57"/>
-      <c r="J117" s="57"/>
-      <c r="K117" s="57"/>
-      <c r="L117" s="57"/>
-      <c r="M117" s="57"/>
-      <c r="N117" s="57"/>
+      <c r="D117" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="28"/>
+      <c r="N117" s="28"/>
       <c r="O117" s="20"/>
       <c r="P117" s="20"/>
     </row>
@@ -3792,26 +3829,26 @@
       <c r="R122" s="14"/>
     </row>
     <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A124" s="29" t="s">
+      <c r="A124" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="29"/>
-      <c r="G124" s="29"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="32"/>
+      <c r="B125" s="45"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="46"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
@@ -3820,7 +3857,7 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C128" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D128" s="27"/>
       <c r="E128" s="27"/>
@@ -3835,16 +3872,16 @@
     </row>
     <row r="129" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C129" s="21"/>
-      <c r="D129" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
-      <c r="K129" s="28"/>
+      <c r="D129" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
       <c r="L129" s="21"/>
       <c r="M129"/>
     </row>
@@ -3863,7 +3900,7 @@
     </row>
     <row r="131" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C131" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D131" s="27"/>
       <c r="E131" s="27"/>
@@ -3878,10 +3915,10 @@
     </row>
     <row r="132" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C132" s="21"/>
-      <c r="D132" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E132" s="28"/>
+      <c r="D132" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E132" s="26"/>
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
@@ -3895,10 +3932,10 @@
       <c r="C133" s="21"/>
       <c r="D133" s="21"/>
       <c r="E133" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F133" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="F133" s="27" t="s">
-        <v>118</v>
       </c>
       <c r="G133" s="27"/>
       <c r="H133" s="21"/>
@@ -3911,14 +3948,14 @@
     <row r="134" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C134" s="21"/>
       <c r="D134" s="21"/>
-      <c r="E134" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
+      <c r="E134" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
       <c r="K134" s="21"/>
       <c r="L134" s="21"/>
       <c r="M134"/>
@@ -3927,10 +3964,10 @@
       <c r="C135" s="21"/>
       <c r="D135" s="21"/>
       <c r="E135" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F135" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="F135" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="G135" s="27"/>
       <c r="H135" s="27"/>
@@ -3955,7 +3992,7 @@
     </row>
     <row r="137" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C137" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D137" s="27"/>
       <c r="E137" s="27"/>
@@ -3970,44 +4007,44 @@
     </row>
     <row r="138" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C138" s="21"/>
-      <c r="D138" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="28"/>
-      <c r="J138" s="28"/>
-      <c r="K138" s="28"/>
+      <c r="D138" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
       <c r="L138" s="21"/>
       <c r="M138"/>
     </row>
     <row r="139" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C139" s="21"/>
-      <c r="D139" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="28"/>
-      <c r="J139" s="28"/>
-      <c r="K139" s="28"/>
+      <c r="D139" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="26"/>
+      <c r="K139" s="26"/>
       <c r="L139" s="21"/>
       <c r="M139"/>
     </row>
     <row r="140" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C140" s="21"/>
-      <c r="D140" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
+      <c r="D140" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
       <c r="J140" s="21"/>
       <c r="K140" s="21"/>
       <c r="L140" s="21"/>
@@ -4028,7 +4065,7 @@
     </row>
     <row r="142" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C142" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D142" s="27"/>
       <c r="E142" s="27"/>
@@ -4043,17 +4080,17 @@
     </row>
     <row r="143" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C143" s="21"/>
-      <c r="D143" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="28"/>
-      <c r="L143" s="28"/>
+      <c r="D143" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="26"/>
+      <c r="L143" s="26"/>
       <c r="M143"/>
     </row>
     <row r="146" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4076,26 +4113,26 @@
       <c r="R146" s="14"/>
     </row>
     <row r="148" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A148" s="29" t="s">
+      <c r="A148" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B148" s="39"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="B148" s="29"/>
-      <c r="C148" s="29"/>
-      <c r="D148" s="29"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="29"/>
-      <c r="G148" s="29"/>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="32"/>
+      <c r="B149" s="45"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="46"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B151" s="11" t="s">
@@ -4103,10 +4140,10 @@
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C152" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D152" s="25"/>
+      <c r="C152" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D152" s="53"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
       <c r="G152" s="23"/>
@@ -4119,102 +4156,102 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C153" s="23"/>
-      <c r="D153" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E153" s="26"/>
-      <c r="F153" s="26"/>
-      <c r="G153" s="26"/>
-      <c r="H153" s="26"/>
-      <c r="I153" s="26"/>
-      <c r="J153" s="26"/>
-      <c r="K153" s="26"/>
-      <c r="L153" s="26"/>
-      <c r="M153" s="26"/>
+      <c r="D153" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E153" s="29"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
+      <c r="M153" s="29"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C154" s="23"/>
-      <c r="D154" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="E154" s="26"/>
-      <c r="F154" s="26"/>
-      <c r="G154" s="26"/>
-      <c r="H154" s="26"/>
-      <c r="I154" s="26"/>
-      <c r="J154" s="26"/>
+      <c r="D154" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E154" s="29"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="29"/>
       <c r="K154" s="23"/>
       <c r="L154" s="23"/>
       <c r="M154" s="23"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C155" s="23"/>
-      <c r="D155" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26"/>
-      <c r="G155" s="26"/>
-      <c r="H155" s="26"/>
-      <c r="I155" s="26"/>
-      <c r="J155" s="26"/>
+      <c r="D155" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="29"/>
       <c r="K155" s="23"/>
       <c r="L155" s="23"/>
       <c r="M155" s="23"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C156" s="23"/>
-      <c r="D156" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="E156" s="26"/>
-      <c r="F156" s="26"/>
-      <c r="G156" s="26"/>
-      <c r="H156" s="26"/>
-      <c r="I156" s="26"/>
-      <c r="J156" s="26"/>
-      <c r="K156" s="26"/>
+      <c r="D156" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="29"/>
       <c r="L156" s="23"/>
       <c r="M156" s="23"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C157" s="23"/>
-      <c r="D157" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26"/>
-      <c r="G157" s="26"/>
-      <c r="H157" s="26"/>
-      <c r="I157" s="26"/>
-      <c r="J157" s="26"/>
-      <c r="K157" s="26"/>
+      <c r="D157" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="29"/>
       <c r="L157" s="23"/>
       <c r="M157" s="23"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C158" s="23"/>
-      <c r="D158" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="E158" s="26"/>
-      <c r="F158" s="26"/>
-      <c r="G158" s="26"/>
-      <c r="H158" s="26"/>
-      <c r="I158" s="26"/>
-      <c r="J158" s="26"/>
-      <c r="K158" s="26"/>
+      <c r="D158" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="29"/>
+      <c r="K158" s="29"/>
       <c r="L158" s="23"/>
       <c r="M158" s="23"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C159" s="23"/>
-      <c r="D159" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E159" s="26"/>
-      <c r="F159" s="26"/>
-      <c r="G159" s="26"/>
+      <c r="D159" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29"/>
       <c r="H159" s="23"/>
       <c r="I159" s="23"/>
       <c r="J159" s="23"/>
@@ -4224,13 +4261,13 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C160" s="23"/>
-      <c r="D160" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E160" s="26"/>
-      <c r="F160" s="26"/>
-      <c r="G160" s="26"/>
-      <c r="H160" s="26"/>
+      <c r="D160" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
       <c r="I160" s="23"/>
       <c r="J160" s="23"/>
       <c r="K160" s="23"/>
@@ -4238,90 +4275,16 @@
       <c r="M160" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="116">
-    <mergeCell ref="D139:K139"/>
-    <mergeCell ref="D140:I140"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="D143:L143"/>
-    <mergeCell ref="E134:J134"/>
-    <mergeCell ref="F135:K135"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="D138:K138"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D116:N116"/>
-    <mergeCell ref="D117:N117"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="E109:H109"/>
-    <mergeCell ref="E110:J110"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="E102:M102"/>
-    <mergeCell ref="E103:M103"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:L44"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y36:Z37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="B62:L62"/>
-    <mergeCell ref="D47:K48"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="U57:U60"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="U76:U77"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="E70:K70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
+  <mergeCells count="114">
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="D153:M153"/>
+    <mergeCell ref="D154:J154"/>
+    <mergeCell ref="D155:J155"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="D158:K158"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="D160:H160"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="C79:L79"/>
     <mergeCell ref="C82:K82"/>
@@ -4346,15 +4309,87 @@
     <mergeCell ref="A125:G125"/>
     <mergeCell ref="D113:H113"/>
     <mergeCell ref="E114:L114"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="D153:M153"/>
-    <mergeCell ref="D154:J154"/>
-    <mergeCell ref="D155:J155"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="D158:K158"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="D47:K48"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="U57:U60"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="U76:U77"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="E70:K70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="B62:M62"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y36:Z37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:L44"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D115:I115"/>
+    <mergeCell ref="D116:N116"/>
+    <mergeCell ref="D117:N117"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="E110:J110"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="E102:M102"/>
+    <mergeCell ref="E103:M103"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="D139:K139"/>
+    <mergeCell ref="D140:I140"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="D143:L143"/>
+    <mergeCell ref="E134:J134"/>
+    <mergeCell ref="F135:K135"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="D138:K138"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4371,15 +4406,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
-                    <xdr:row>31</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>30</xdr:row>
+                    <xdr:rowOff>180975</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4393,15 +4428,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>28575</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4415,15 +4450,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
-                    <xdr:row>33</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:colOff>228600</xdr:colOff>
+                    <xdr:row>32</xdr:row>
+                    <xdr:rowOff>190500</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
+                    <xdr:colOff>561975</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Document/02. Design/01. LogicDesign/Logic_Design.xlsx
+++ b/Document/02. Design/01. LogicDesign/Logic_Design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\01. LogicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7739F5E0-B736-4BDB-A3FF-59536F48594B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD112FB-C7B8-47E7-8B90-466DB483C10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEEF98DA-26BA-42DE-A0E7-30F467E095A2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -432,12 +432,6 @@
     <t>Phòng họp: to, nhỏ…</t>
   </si>
   <si>
-    <t xml:space="preserve"> Lưu thông tin và phản ánh xuống lịch</t>
-  </si>
-  <si>
-    <t>Gửi mail cho người phỏng vấn(dựa vào thông tin nhân viên SSV)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Màn hình lịch phỏng vấn </t>
   </si>
   <si>
@@ -592,6 +586,48 @@
   </si>
   <si>
     <t>1. Hiển thị list danh sách các ứng viên đã duyệt OK (Trạng Thái : Duyệt CV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Lưu thông tin và phản ánh xuống </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lịch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Gửi mail cho</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> người phỏng vấn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dựa vào thông tin nhân viên SSV)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -826,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,17 +927,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,111 +1041,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1220,15 +1255,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>224270</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>184439</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>557645</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>32905</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1287,15 +1322,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>224271</xdr:colOff>
+          <xdr:colOff>228600</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>2598</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>557646</xdr:colOff>
+          <xdr:colOff>561975</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>31173</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1356,13 +1391,13 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>193098</xdr:rowOff>
+          <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>22513</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2059,15 +2094,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DB082C-F727-4B77-9543-2F7F2CD1578F}">
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="8.85546875" style="5"/>
     <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
-    <col min="5" max="7" width="8.85546875" style="5"/>
+    <col min="5" max="6" width="8.85546875" style="5"/>
+    <col min="7" max="7" width="12.28515625" style="5" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" style="5" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" style="5" customWidth="1"/>
@@ -2092,38 +2128,38 @@
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
     </row>
     <row r="2" spans="1:19" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="F3" s="32" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="F3" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2163,45 +2199,45 @@
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
       <c r="Q5"/>
       <c r="R5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
       <c r="Q6"/>
       <c r="R6"/>
     </row>
@@ -2301,15 +2337,15 @@
       <c r="R11" s="14"/>
     </row>
     <row r="13" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -2350,44 +2386,44 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="41" t="s">
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="36"/>
+      <c r="R15" s="52"/>
     </row>
     <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>49</v>
       </c>
       <c r="B16" s="61"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="37"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="53"/>
     </row>
     <row r="17" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
@@ -2477,6 +2513,9 @@
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
+      <c r="J26" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="27" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
@@ -2507,26 +2546,26 @@
       <c r="R28" s="14"/>
     </row>
     <row r="30" spans="1:24" ht="27" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="46"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
       <c r="L31" s="5" t="s">
         <v>50</v>
       </c>
@@ -2568,49 +2607,49 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="49" t="s">
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="46" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="63"/>
+      <c r="B33" s="55"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
       <c r="X33" s="47"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
+      <c r="B34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
@@ -2621,17 +2660,17 @@
       </c>
     </row>
     <row r="35" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
       <c r="K35" s="16"/>
       <c r="L35" s="10"/>
       <c r="R35" s="6" t="s">
@@ -2639,14 +2678,14 @@
       </c>
     </row>
     <row r="36" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -2655,54 +2694,54 @@
       <c r="R36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Y36" s="50" t="s">
+      <c r="Y36" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="Z36" s="50"/>
+      <c r="Z36" s="39"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
       <c r="R37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Y37" s="50"/>
-      <c r="Z37" s="50"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
@@ -2729,59 +2768,59 @@
       <c r="B43" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="48" t="s">
+      <c r="C47" s="39"/>
+      <c r="D47" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
     </row>
     <row r="52" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="14"/>
@@ -2803,26 +2842,26 @@
       <c r="R52" s="14"/>
     </row>
     <row r="54" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="46"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="33"/>
     </row>
     <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
@@ -2893,7 +2932,7 @@
       <c r="T57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U57" s="51" t="s">
+      <c r="U57" s="41" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2919,7 +2958,7 @@
       <c r="T58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U58" s="51"/>
+      <c r="U58" s="41"/>
     </row>
     <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
@@ -2932,7 +2971,9 @@
       <c r="I59" s="16"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
+      <c r="L59" s="9">
+        <v>0</v>
+      </c>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
@@ -2943,7 +2984,7 @@
       <c r="T59" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U59" s="51"/>
+      <c r="U59" s="41"/>
     </row>
     <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J60" s="9"/>
@@ -2959,7 +3000,7 @@
       <c r="T60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U60" s="51"/>
+      <c r="U60" s="41"/>
     </row>
     <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
@@ -2970,33 +3011,33 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="65" t="s">
+      <c r="B62" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="66"/>
-      <c r="M62" s="67"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="45"/>
       <c r="N62" s="10"/>
       <c r="T62" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
@@ -3008,15 +3049,18 @@
       <c r="T63" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="U63" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="21"/>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
@@ -3032,10 +3076,10 @@
     <row r="65" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
-      <c r="D65" s="27" t="s">
+      <c r="D65" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="E65" s="27"/>
+      <c r="E65" s="28"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
@@ -3053,14 +3097,14 @@
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
-      <c r="E66" s="26" t="s">
+      <c r="E66" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
       <c r="M66" s="10"/>
@@ -3073,14 +3117,14 @@
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
-      <c r="E67" s="26" t="s">
+      <c r="E67" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
       <c r="M67" s="10"/>
@@ -3110,10 +3154,10 @@
     <row r="69" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
-      <c r="D69" s="27" t="s">
+      <c r="D69" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="27"/>
+      <c r="E69" s="28"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
@@ -3131,15 +3175,15 @@
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
-      <c r="E70" s="26" t="s">
+      <c r="E70" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
       <c r="L70" s="21"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
@@ -3152,11 +3196,11 @@
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
-      <c r="F71" s="26" t="s">
+      <c r="F71" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
       <c r="K71" s="21"/>
@@ -3172,11 +3216,11 @@
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
       <c r="K72" s="21"/>
@@ -3189,12 +3233,12 @@
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
-      <c r="F73" s="26" t="s">
+      <c r="F73" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
       <c r="J73" s="21"/>
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
@@ -3206,12 +3250,12 @@
       <c r="C74" s="21"/>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
-      <c r="F74" s="26" t="s">
+      <c r="F74" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
       <c r="J74" s="21"/>
       <c r="K74" s="21"/>
       <c r="L74" s="21"/>
@@ -3223,13 +3267,13 @@
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
-      <c r="F75" s="26" t="s">
+      <c r="F75" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G75" s="26"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
       <c r="M75" s="10"/>
@@ -3239,19 +3283,19 @@
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="27"/>
-      <c r="N76" s="27"/>
-      <c r="U76" s="52" t="s">
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="U76" s="42" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3269,14 +3313,14 @@
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
-      <c r="U77" s="52"/>
+      <c r="U77" s="42"/>
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
@@ -3290,21 +3334,21 @@
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B79" s="21"/>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="26"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="29"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
-      <c r="U79" s="52" t="s">
+      <c r="U79" s="42" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3322,14 +3366,14 @@
       <c r="L80" s="21"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
-      <c r="U80" s="52"/>
+      <c r="U80" s="42"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="27" t="s">
+      <c r="B81" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
       <c r="E81" s="21"/>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
@@ -3343,17 +3387,17 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B82" s="21"/>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="26"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="26"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
+      <c r="K82" s="29"/>
       <c r="L82" s="21"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
@@ -3378,26 +3422,26 @@
       <c r="R88" s="14"/>
     </row>
     <row r="90" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="44" t="s">
+      <c r="A91" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="45"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="46"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="33"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
@@ -3405,37 +3449,37 @@
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="55"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="55"/>
-      <c r="H95" s="55"/>
-      <c r="I95" s="55"/>
-      <c r="J95" s="56"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="36"/>
       <c r="K95" s="22"/>
-      <c r="L95" s="57" t="s">
-        <v>108</v>
+      <c r="L95" s="37" t="s">
+        <v>106</v>
       </c>
       <c r="M95" s="22"/>
       <c r="O95" s="20"/>
       <c r="P95" s="20"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C96" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="29"/>
-      <c r="G96" s="29"/>
-      <c r="H96" s="29"/>
-      <c r="I96" s="29"/>
-      <c r="J96" s="29"/>
+      <c r="C96" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
       <c r="K96" s="22"/>
-      <c r="L96" s="57"/>
+      <c r="L96" s="37"/>
       <c r="M96" s="22"/>
       <c r="N96" s="22"/>
       <c r="O96" s="20"/>
@@ -3490,13 +3534,13 @@
       <c r="P99" s="20"/>
     </row>
     <row r="100" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C100" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="D100" s="53"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
+      <c r="C100" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
       <c r="H100" s="23"/>
       <c r="I100" s="23"/>
       <c r="J100" s="23"/>
@@ -3509,11 +3553,11 @@
     </row>
     <row r="101" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C101" s="23"/>
-      <c r="D101" s="29" t="s">
+      <c r="D101" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E101" s="29"/>
-      <c r="F101" s="29"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
       <c r="G101" s="23"/>
       <c r="H101" s="23"/>
       <c r="I101" s="23"/>
@@ -3528,17 +3572,17 @@
     <row r="102" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
-      <c r="E102" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="29"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
+      <c r="E102" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="27"/>
       <c r="N102" s="22"/>
       <c r="O102" s="20"/>
       <c r="P102" s="20"/>
@@ -3546,17 +3590,17 @@
     <row r="103" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
-      <c r="E103" s="29" t="s">
+      <c r="E103" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="29"/>
-      <c r="I103" s="29"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="27"/>
+      <c r="M103" s="27"/>
       <c r="N103" s="22"/>
       <c r="O103" s="20"/>
       <c r="P103" s="20"/>
@@ -3564,15 +3608,15 @@
     <row r="104" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
-      <c r="E104" s="29" t="s">
+      <c r="E104" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="F104" s="29"/>
-      <c r="G104" s="29"/>
-      <c r="H104" s="29"/>
-      <c r="I104" s="29"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="27"/>
       <c r="L104" s="23"/>
       <c r="M104" s="23"/>
       <c r="N104" s="22"/>
@@ -3582,14 +3626,14 @@
     <row r="105" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
-      <c r="E105" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="59"/>
-      <c r="J105" s="60"/>
+      <c r="E105" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="66"/>
       <c r="K105" s="23"/>
       <c r="L105" s="23"/>
       <c r="M105" s="23"/>
@@ -3600,11 +3644,11 @@
     <row r="106" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="F106" s="29"/>
-      <c r="G106" s="29"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
       <c r="J106" s="23"/>
@@ -3633,10 +3677,10 @@
     </row>
     <row r="108" spans="3:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C108" s="22"/>
-      <c r="D108" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E108" s="30"/>
+      <c r="D108" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="E108" s="62"/>
       <c r="F108" s="22"/>
       <c r="G108" s="22"/>
       <c r="H108" s="22"/>
@@ -3652,12 +3696,12 @@
     <row r="109" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
-      <c r="E109" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
+      <c r="E109" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
       <c r="I109" s="22"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
@@ -3670,14 +3714,14 @@
     <row r="110" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
-      <c r="E110" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
+      <c r="E110" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="38"/>
+      <c r="J110" s="38"/>
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
       <c r="M110" s="22"/>
@@ -3702,11 +3746,11 @@
       <c r="P111" s="20"/>
     </row>
     <row r="112" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C112" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
+      <c r="C112" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D112" s="63"/>
+      <c r="E112" s="63"/>
       <c r="F112" s="22"/>
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
@@ -3721,13 +3765,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C113" s="22"/>
-      <c r="D113" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
+      <c r="D113" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="38"/>
       <c r="I113" s="22"/>
       <c r="J113" s="22"/>
       <c r="K113" s="22"/>
@@ -3740,16 +3784,16 @@
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
-      <c r="E114" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="28"/>
-      <c r="L114" s="28"/>
+      <c r="E114" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="38"/>
+      <c r="J114" s="38"/>
+      <c r="K114" s="38"/>
+      <c r="L114" s="38"/>
       <c r="M114" s="22"/>
       <c r="N114" s="22"/>
       <c r="O114" s="20"/>
@@ -3757,14 +3801,14 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C115" s="22"/>
-      <c r="D115" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
+      <c r="D115" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E115" s="38"/>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="38"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22"/>
       <c r="L115" s="22"/>
@@ -3775,37 +3819,37 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C116" s="22"/>
-      <c r="D116" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
-      <c r="K116" s="28"/>
-      <c r="L116" s="28"/>
-      <c r="M116" s="28"/>
-      <c r="N116" s="28"/>
+      <c r="D116" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E116" s="38"/>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="38"/>
+      <c r="K116" s="38"/>
+      <c r="L116" s="38"/>
+      <c r="M116" s="38"/>
+      <c r="N116" s="38"/>
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C117" s="22"/>
-      <c r="D117" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="E117" s="28"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="28"/>
-      <c r="L117" s="28"/>
-      <c r="M117" s="28"/>
-      <c r="N117" s="28"/>
+      <c r="D117" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E117" s="38"/>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="38"/>
+      <c r="K117" s="38"/>
+      <c r="L117" s="38"/>
+      <c r="M117" s="38"/>
+      <c r="N117" s="38"/>
       <c r="O117" s="20"/>
       <c r="P117" s="20"/>
     </row>
@@ -3829,26 +3873,26 @@
       <c r="R122" s="14"/>
     </row>
     <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
+      <c r="A124" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B125" s="45"/>
-      <c r="C125" s="45"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="46"/>
+      <c r="A125" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="33"/>
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
@@ -3856,14 +3900,14 @@
       </c>
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C128" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
+      <c r="C128" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D128" s="28"/>
+      <c r="E128" s="28"/>
+      <c r="F128" s="28"/>
+      <c r="G128" s="28"/>
+      <c r="H128" s="28"/>
       <c r="I128" s="21"/>
       <c r="J128" s="21"/>
       <c r="K128" s="21"/>
@@ -3872,16 +3916,16 @@
     </row>
     <row r="129" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C129" s="21"/>
-      <c r="D129" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="26"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26"/>
-      <c r="K129" s="26"/>
+      <c r="D129" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
+      <c r="K129" s="29"/>
       <c r="L129" s="21"/>
       <c r="M129"/>
     </row>
@@ -3899,12 +3943,12 @@
       <c r="M130"/>
     </row>
     <row r="131" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C131" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
+      <c r="C131" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D131" s="28"/>
+      <c r="E131" s="28"/>
+      <c r="F131" s="28"/>
       <c r="G131" s="21"/>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
@@ -3915,10 +3959,10 @@
     </row>
     <row r="132" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C132" s="21"/>
-      <c r="D132" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E132" s="26"/>
+      <c r="D132" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E132" s="29"/>
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
@@ -3932,12 +3976,12 @@
       <c r="C133" s="21"/>
       <c r="D133" s="21"/>
       <c r="E133" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="F133" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="G133" s="27"/>
+        <v>114</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G133" s="28"/>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
       <c r="J133" s="21"/>
@@ -3948,14 +3992,14 @@
     <row r="134" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C134" s="21"/>
       <c r="D134" s="21"/>
-      <c r="E134" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F134" s="26"/>
-      <c r="G134" s="26"/>
-      <c r="H134" s="26"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="26"/>
+      <c r="E134" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
       <c r="K134" s="21"/>
       <c r="L134" s="21"/>
       <c r="M134"/>
@@ -3964,16 +4008,16 @@
       <c r="C135" s="21"/>
       <c r="D135" s="21"/>
       <c r="E135" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F135" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="27"/>
-      <c r="K135" s="27"/>
+        <v>117</v>
+      </c>
+      <c r="F135" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G135" s="28"/>
+      <c r="H135" s="28"/>
+      <c r="I135" s="28"/>
+      <c r="J135" s="28"/>
+      <c r="K135" s="28"/>
       <c r="L135" s="21"/>
       <c r="M135"/>
     </row>
@@ -3991,11 +4035,11 @@
       <c r="M136"/>
     </row>
     <row r="137" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C137" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
+      <c r="C137" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
       <c r="H137" s="21"/>
@@ -4007,44 +4051,44 @@
     </row>
     <row r="138" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C138" s="21"/>
-      <c r="D138" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E138" s="26"/>
-      <c r="F138" s="26"/>
-      <c r="G138" s="26"/>
-      <c r="H138" s="26"/>
-      <c r="I138" s="26"/>
-      <c r="J138" s="26"/>
-      <c r="K138" s="26"/>
+      <c r="D138" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
+      <c r="K138" s="29"/>
       <c r="L138" s="21"/>
       <c r="M138"/>
     </row>
     <row r="139" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C139" s="21"/>
-      <c r="D139" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E139" s="26"/>
-      <c r="F139" s="26"/>
-      <c r="G139" s="26"/>
-      <c r="H139" s="26"/>
-      <c r="I139" s="26"/>
-      <c r="J139" s="26"/>
-      <c r="K139" s="26"/>
+      <c r="D139" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="29"/>
+      <c r="K139" s="29"/>
       <c r="L139" s="21"/>
       <c r="M139"/>
     </row>
     <row r="140" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C140" s="21"/>
-      <c r="D140" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E140" s="26"/>
-      <c r="F140" s="26"/>
-      <c r="G140" s="26"/>
-      <c r="H140" s="26"/>
-      <c r="I140" s="26"/>
+      <c r="D140" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
       <c r="J140" s="21"/>
       <c r="K140" s="21"/>
       <c r="L140" s="21"/>
@@ -4064,12 +4108,12 @@
       <c r="M141"/>
     </row>
     <row r="142" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C142" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
+      <c r="C142" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
       <c r="G142" s="21"/>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
@@ -4080,17 +4124,17 @@
     </row>
     <row r="143" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C143" s="21"/>
-      <c r="D143" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E143" s="26"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="26"/>
-      <c r="H143" s="26"/>
-      <c r="I143" s="26"/>
-      <c r="J143" s="26"/>
-      <c r="K143" s="26"/>
-      <c r="L143" s="26"/>
+      <c r="D143" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="29"/>
       <c r="M143"/>
     </row>
     <row r="146" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -4113,26 +4157,26 @@
       <c r="R146" s="14"/>
     </row>
     <row r="148" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A148" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
-      <c r="F148" s="39"/>
-      <c r="G148" s="39"/>
+      <c r="A148" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B149" s="45"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="45"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="46"/>
+      <c r="A149" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149" s="32"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="33"/>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B151" s="11" t="s">
@@ -4140,10 +4184,10 @@
       </c>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C152" s="53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D152" s="53"/>
+      <c r="C152" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D152" s="26"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
       <c r="G152" s="23"/>
@@ -4156,102 +4200,102 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C153" s="23"/>
-      <c r="D153" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E153" s="29"/>
-      <c r="F153" s="29"/>
-      <c r="G153" s="29"/>
-      <c r="H153" s="29"/>
-      <c r="I153" s="29"/>
-      <c r="J153" s="29"/>
-      <c r="K153" s="29"/>
-      <c r="L153" s="29"/>
-      <c r="M153" s="29"/>
+      <c r="D153" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E153" s="27"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
+      <c r="H153" s="27"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="27"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="27"/>
+      <c r="M153" s="27"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C154" s="23"/>
-      <c r="D154" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="E154" s="29"/>
-      <c r="F154" s="29"/>
-      <c r="G154" s="29"/>
-      <c r="H154" s="29"/>
-      <c r="I154" s="29"/>
-      <c r="J154" s="29"/>
+      <c r="D154" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
       <c r="K154" s="23"/>
       <c r="L154" s="23"/>
       <c r="M154" s="23"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C155" s="23"/>
-      <c r="D155" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E155" s="29"/>
-      <c r="F155" s="29"/>
-      <c r="G155" s="29"/>
-      <c r="H155" s="29"/>
-      <c r="I155" s="29"/>
-      <c r="J155" s="29"/>
+      <c r="D155" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="27"/>
       <c r="K155" s="23"/>
       <c r="L155" s="23"/>
       <c r="M155" s="23"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C156" s="23"/>
-      <c r="D156" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
-      <c r="H156" s="29"/>
-      <c r="I156" s="29"/>
-      <c r="J156" s="29"/>
-      <c r="K156" s="29"/>
+      <c r="D156" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="27"/>
+      <c r="K156" s="27"/>
       <c r="L156" s="23"/>
       <c r="M156" s="23"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C157" s="23"/>
-      <c r="D157" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="E157" s="29"/>
-      <c r="F157" s="29"/>
-      <c r="G157" s="29"/>
-      <c r="H157" s="29"/>
-      <c r="I157" s="29"/>
-      <c r="J157" s="29"/>
-      <c r="K157" s="29"/>
+      <c r="D157" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
+      <c r="G157" s="27"/>
+      <c r="H157" s="27"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="27"/>
+      <c r="K157" s="27"/>
       <c r="L157" s="23"/>
       <c r="M157" s="23"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C158" s="23"/>
-      <c r="D158" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="E158" s="29"/>
-      <c r="F158" s="29"/>
-      <c r="G158" s="29"/>
-      <c r="H158" s="29"/>
-      <c r="I158" s="29"/>
-      <c r="J158" s="29"/>
-      <c r="K158" s="29"/>
+      <c r="D158" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
+      <c r="G158" s="27"/>
+      <c r="H158" s="27"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="27"/>
+      <c r="K158" s="27"/>
       <c r="L158" s="23"/>
       <c r="M158" s="23"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C159" s="23"/>
-      <c r="D159" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E159" s="29"/>
-      <c r="F159" s="29"/>
-      <c r="G159" s="29"/>
+      <c r="D159" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="27"/>
       <c r="H159" s="23"/>
       <c r="I159" s="23"/>
       <c r="J159" s="23"/>
@@ -4261,13 +4305,13 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C160" s="23"/>
-      <c r="D160" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
+      <c r="D160" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
       <c r="I160" s="23"/>
       <c r="J160" s="23"/>
       <c r="K160" s="23"/>
@@ -4276,15 +4320,87 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="D153:M153"/>
-    <mergeCell ref="D154:J154"/>
-    <mergeCell ref="D155:J155"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="D158:K158"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D139:K139"/>
+    <mergeCell ref="D140:I140"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="D143:L143"/>
+    <mergeCell ref="E134:J134"/>
+    <mergeCell ref="F135:K135"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="D138:K138"/>
+    <mergeCell ref="D115:I115"/>
+    <mergeCell ref="D116:N116"/>
+    <mergeCell ref="D117:N117"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="E110:J110"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="E102:M102"/>
+    <mergeCell ref="E103:M103"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:L44"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B5:P5"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y36:Z37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="D47:K48"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="U57:U60"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="U76:U77"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="E70:K70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="B62:M62"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="C79:L79"/>
     <mergeCell ref="C82:K82"/>
@@ -4309,87 +4425,15 @@
     <mergeCell ref="A125:G125"/>
     <mergeCell ref="D113:H113"/>
     <mergeCell ref="E114:L114"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="D47:K48"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="U57:U60"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="U76:U77"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="E70:K70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="B62:M62"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y36:Z37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="Q32:Q33"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:L44"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D116:N116"/>
-    <mergeCell ref="D117:N117"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="E109:H109"/>
-    <mergeCell ref="E110:J110"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="E102:M102"/>
-    <mergeCell ref="E103:M103"/>
-    <mergeCell ref="E104:K104"/>
-    <mergeCell ref="D139:K139"/>
-    <mergeCell ref="D140:I140"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="D143:L143"/>
-    <mergeCell ref="E134:J134"/>
-    <mergeCell ref="F135:K135"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="D138:K138"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="D153:M153"/>
+    <mergeCell ref="D154:J154"/>
+    <mergeCell ref="D155:J155"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="D158:K158"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="D160:H160"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/02. Design/01. LogicDesign/Logic_Design.xlsx
+++ b/Document/02. Design/01. LogicDesign/Logic_Design.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ToanHH\Candidate-Management\Document\02. Design\01. LogicDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToanHH\Candidate-Management\Document\02. Design\01. LogicDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD112FB-C7B8-47E7-8B90-466DB483C10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638E99BC-920F-42F0-9FF5-EA3801DADAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEEF98DA-26BA-42DE-A0E7-30F467E095A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CEEF98DA-26BA-42DE-A0E7-30F467E095A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Phân Tích Yêu Cầu" sheetId="2" r:id="rId1"/>
@@ -927,30 +927,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -962,84 +1040,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1257,13 +1257,13 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>228600</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1328,9 +1328,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1395,9 +1395,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>561975</xdr:colOff>
+          <xdr:colOff>563880</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1536,9 +1536,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>83820</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -1603,9 +1603,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>83820</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -1670,9 +1670,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>85725</xdr:colOff>
+          <xdr:colOff>83820</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
@@ -2094,72 +2094,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DB082C-F727-4B77-9543-2F7F2CD1578F}">
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="5"/>
-    <col min="4" max="4" width="10.7109375" style="5" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="5"/>
-    <col min="7" max="7" width="12.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="5" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="5"/>
+    <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="5"/>
+    <col min="7" max="7" width="12.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" style="5" customWidth="1"/>
     <col min="12" max="12" width="22" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="5" customWidth="1"/>
     <col min="14" max="14" width="16" style="5" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="19.28515625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="23.42578125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="18.44140625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="19.33203125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="23.44140625" style="5" customWidth="1"/>
     <col min="19" max="19" width="14" style="5" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" style="5" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" style="5" customWidth="1"/>
     <col min="21" max="21" width="21" style="5" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="22.7109375" style="5" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="8.85546875" style="5"/>
+    <col min="22" max="22" width="17.6640625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="22.6640625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="13.33203125" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-    </row>
-    <row r="2" spans="1:19" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="F3" s="56" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="F3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
       <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -2195,53 +2195,53 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
       <c r="Q6"/>
       <c r="R6"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -2260,7 +2260,7 @@
       <c r="Q7"/>
       <c r="R7"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -2279,7 +2279,7 @@
       <c r="Q8"/>
       <c r="R8"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -2298,7 +2298,7 @@
       <c r="Q9"/>
       <c r="R9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -2317,7 +2317,7 @@
       <c r="Q10"/>
       <c r="R10"/>
     </row>
-    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -2336,18 +2336,18 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
     </row>
-    <row r="13" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>39</v>
       </c>
@@ -2385,47 +2385,47 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="50" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="R15" s="52"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="R15" s="35"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="53"/>
-    </row>
-    <row r="17" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="49"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="36"/>
+    </row>
+    <row r="17" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="25" t="s">
         <v>46</v>
@@ -2437,7 +2437,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="25" t="s">
         <v>47</v>
@@ -2449,7 +2449,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
         <v>48</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
     </row>
-    <row r="21" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -2469,7 +2469,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -2478,7 +2478,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -2487,7 +2487,7 @@
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -2496,7 +2496,7 @@
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -2505,7 +2505,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -2517,7 +2517,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -2526,7 +2526,7 @@
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2545,27 +2545,27 @@
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
     </row>
-    <row r="30" spans="1:24" ht="27" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+    <row r="30" spans="1:24" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="31" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
       <c r="L31" s="5" t="s">
         <v>50</v>
       </c>
@@ -2606,42 +2606,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="46" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="54" t="s">
+    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="55"/>
+      <c r="B33" s="53"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="47"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="38"/>
+    </row>
+    <row r="34" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>137</v>
       </c>
@@ -2659,33 +2659,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="49" t="s">
+    <row r="35" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
       <c r="K35" s="16"/>
       <c r="L35" s="10"/>
       <c r="R35" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="49" t="s">
+    <row r="36" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
@@ -2694,135 +2694,135 @@
       <c r="R36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Y36" s="39" t="s">
+      <c r="Y36" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="Z36" s="39"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="49" t="s">
+      <c r="Z36" s="51"/>
+    </row>
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
       <c r="R37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="49" t="s">
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+    </row>
+    <row r="38" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="49" t="s">
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="46"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B43" s="47" t="s">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B43" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B44" s="47"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="40"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B47" s="39" t="s">
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B47" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="39"/>
-      <c r="D47" s="40" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-    </row>
-    <row r="52" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+    </row>
+    <row r="52" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -2841,29 +2841,29 @@
       <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
     </row>
-    <row r="54" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+    <row r="54" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="33"/>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="34"/>
+    </row>
+    <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -2911,7 +2911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -2932,11 +2932,11 @@
       <c r="T57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U57" s="41" t="s">
+      <c r="U57" s="54" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -2958,9 +2958,9 @@
       <c r="T58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U58" s="41"/>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U58" s="54"/>
+    </row>
+    <row r="59" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
@@ -2984,9 +2984,9 @@
       <c r="T59" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U59" s="41"/>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U59" s="54"/>
+    </row>
+    <row r="60" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -3000,9 +3000,9 @@
       <c r="T60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="U60" s="41"/>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U60" s="54"/>
+    </row>
+    <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>49</v>
       </c>
@@ -3010,34 +3010,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B62" s="43" t="s">
+    <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="45"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="58"/>
       <c r="N62" s="10"/>
       <c r="T62" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="28" t="s">
+    <row r="63" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
       <c r="I63" s="21"/>
@@ -3053,14 +3053,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B64" s="21"/>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="29"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
@@ -3073,13 +3073,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E65" s="28"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
       <c r="H65" s="21"/>
@@ -3093,18 +3093,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
       <c r="D66" s="21"/>
-      <c r="E66" s="29" t="s">
+      <c r="E66" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F66" s="29"/>
-      <c r="G66" s="29"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="29"/>
-      <c r="J66" s="29"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
       <c r="M66" s="10"/>
@@ -3113,18 +3113,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
       <c r="D67" s="21"/>
-      <c r="E67" s="29" t="s">
+      <c r="E67" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
       <c r="M67" s="10"/>
@@ -3133,7 +3133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B68" s="21"/>
       <c r="C68" s="21"/>
       <c r="D68" s="21"/>
@@ -3151,13 +3151,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B69" s="21"/>
       <c r="C69" s="21"/>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E69" s="28"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
@@ -3171,19 +3171,19 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
       <c r="D70" s="21"/>
-      <c r="E70" s="29" t="s">
+      <c r="E70" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="29"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
       <c r="L70" s="21"/>
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
@@ -3191,16 +3191,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
       <c r="D71" s="21"/>
       <c r="E71" s="21"/>
-      <c r="F71" s="29" t="s">
+      <c r="F71" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="29"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
       <c r="I71" s="21"/>
       <c r="J71" s="21"/>
       <c r="K71" s="21"/>
@@ -3211,16 +3211,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
       <c r="E72" s="21"/>
-      <c r="F72" s="29" t="s">
+      <c r="F72" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="G72" s="29"/>
-      <c r="H72" s="29"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="21"/>
       <c r="J72" s="21"/>
       <c r="K72" s="21"/>
@@ -3228,78 +3228,78 @@
       <c r="M72" s="10"/>
       <c r="N72" s="10"/>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
-      <c r="F73" s="29" t="s">
+      <c r="F73" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G73" s="29"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="29"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
       <c r="J73" s="21"/>
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
       <c r="M73" s="10"/>
       <c r="N73" s="10"/>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
       <c r="D74" s="21"/>
       <c r="E74" s="21"/>
-      <c r="F74" s="29" t="s">
+      <c r="F74" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="G74" s="29"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="29"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
       <c r="J74" s="21"/>
       <c r="K74" s="21"/>
       <c r="L74" s="21"/>
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
       <c r="E75" s="21"/>
-      <c r="F75" s="29" t="s">
+      <c r="F75" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="29"/>
-      <c r="J75" s="29"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
       <c r="M75" s="10"/>
       <c r="N75" s="10"/>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
-      <c r="E76" s="28" t="s">
+      <c r="E76" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
-      <c r="M76" s="28"/>
-      <c r="N76" s="28"/>
-      <c r="U76" s="42" t="s">
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="27"/>
+      <c r="N76" s="27"/>
+      <c r="U76" s="55" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -3313,14 +3313,14 @@
       <c r="L77" s="10"/>
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
-      <c r="U77" s="42"/>
-    </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B78" s="28" t="s">
+      <c r="U77" s="55"/>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B78" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
@@ -3332,27 +3332,27 @@
       <c r="M78" s="10"/>
       <c r="N78" s="10"/>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B79" s="21"/>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D79" s="29"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="29"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
-      <c r="U79" s="42" t="s">
+      <c r="U79" s="55" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
@@ -3366,14 +3366,14 @@
       <c r="L80" s="21"/>
       <c r="M80" s="10"/>
       <c r="N80" s="10"/>
-      <c r="U80" s="42"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="28" t="s">
+      <c r="U80" s="55"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B81" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
       <c r="E81" s="21"/>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
@@ -3385,24 +3385,24 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B82" s="21"/>
-      <c r="C82" s="29" t="s">
+      <c r="C82" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D82" s="29"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="29"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
       <c r="L82" s="21"/>
       <c r="M82" s="10"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="88" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
@@ -3421,71 +3421,71 @@
       <c r="Q88" s="14"/>
       <c r="R88" s="14"/>
     </row>
-    <row r="90" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A90" s="30" t="s">
+    <row r="90" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="30"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="30"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="30"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="31" t="s">
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A91" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="33"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="34"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B94" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C95" s="34" t="s">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C95" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="36"/>
+      <c r="D95" s="61"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="61"/>
+      <c r="I95" s="61"/>
+      <c r="J95" s="62"/>
       <c r="K95" s="22"/>
-      <c r="L95" s="37" t="s">
+      <c r="L95" s="63" t="s">
         <v>106</v>
       </c>
       <c r="M95" s="22"/>
       <c r="O95" s="20"/>
       <c r="P95" s="20"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C96" s="27" t="s">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C96" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
       <c r="K96" s="22"/>
-      <c r="L96" s="37"/>
+      <c r="L96" s="63"/>
       <c r="M96" s="22"/>
       <c r="N96" s="22"/>
       <c r="O96" s="20"/>
       <c r="P96" s="20"/>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
       <c r="E97" s="22"/>
@@ -3501,7 +3501,7 @@
       <c r="O97" s="20"/>
       <c r="P97" s="20"/>
     </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="22"/>
@@ -3517,7 +3517,7 @@
       <c r="O98" s="20"/>
       <c r="P98" s="20"/>
     </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
@@ -3533,14 +3533,14 @@
       <c r="O99" s="20"/>
       <c r="P99" s="20"/>
     </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C100" s="26" t="s">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C100" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="26"/>
+      <c r="D100" s="59"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
       <c r="H100" s="23"/>
       <c r="I100" s="23"/>
       <c r="J100" s="23"/>
@@ -3551,13 +3551,13 @@
       <c r="O100" s="20"/>
       <c r="P100" s="20"/>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C101" s="23"/>
-      <c r="D101" s="27" t="s">
+      <c r="D101" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
       <c r="G101" s="23"/>
       <c r="H101" s="23"/>
       <c r="I101" s="23"/>
@@ -3569,61 +3569,61 @@
       <c r="O101" s="20"/>
       <c r="P101" s="20"/>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
-      <c r="E102" s="27" t="s">
+      <c r="E102" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="27"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="29"/>
+      <c r="M102" s="29"/>
       <c r="N102" s="22"/>
       <c r="O102" s="20"/>
       <c r="P102" s="20"/>
     </row>
-    <row r="103" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
-      <c r="E103" s="27" t="s">
+      <c r="E103" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="27"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="29"/>
+      <c r="M103" s="29"/>
       <c r="N103" s="22"/>
       <c r="O103" s="20"/>
       <c r="P103" s="20"/>
     </row>
-    <row r="104" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
-      <c r="E104" s="27" t="s">
+      <c r="E104" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="27"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
+      <c r="K104" s="29"/>
       <c r="L104" s="23"/>
       <c r="M104" s="23"/>
       <c r="N104" s="22"/>
       <c r="O104" s="20"/>
       <c r="P104" s="20"/>
     </row>
-    <row r="105" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
       <c r="E105" s="64" t="s">
@@ -3641,14 +3641,14 @@
       <c r="O105" s="20"/>
       <c r="P105" s="20"/>
     </row>
-    <row r="106" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
-      <c r="E106" s="27" t="s">
+      <c r="E106" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
       <c r="H106" s="23"/>
       <c r="I106" s="23"/>
       <c r="J106" s="23"/>
@@ -3659,7 +3659,7 @@
       <c r="O106" s="20"/>
       <c r="P106" s="20"/>
     </row>
-    <row r="107" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="22"/>
       <c r="D107" s="22"/>
       <c r="E107" s="22"/>
@@ -3675,12 +3675,12 @@
       <c r="O107" s="20"/>
       <c r="P107" s="20"/>
     </row>
-    <row r="108" spans="3:16" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="22"/>
-      <c r="D108" s="62" t="s">
+      <c r="D108" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="E108" s="62"/>
+      <c r="E108" s="30"/>
       <c r="F108" s="22"/>
       <c r="G108" s="22"/>
       <c r="H108" s="22"/>
@@ -3693,15 +3693,15 @@
       <c r="O108" s="20"/>
       <c r="P108" s="20"/>
     </row>
-    <row r="109" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C109" s="22"/>
       <c r="D109" s="22"/>
-      <c r="E109" s="38" t="s">
+      <c r="E109" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
       <c r="I109" s="22"/>
       <c r="J109" s="22"/>
       <c r="K109" s="22"/>
@@ -3711,17 +3711,17 @@
       <c r="O109" s="20"/>
       <c r="P109" s="20"/>
     </row>
-    <row r="110" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C110" s="22"/>
       <c r="D110" s="22"/>
-      <c r="E110" s="38" t="s">
+      <c r="E110" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="38"/>
+      <c r="F110" s="28"/>
+      <c r="G110" s="28"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
+      <c r="J110" s="28"/>
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
       <c r="M110" s="22"/>
@@ -3729,7 +3729,7 @@
       <c r="O110" s="20"/>
       <c r="P110" s="20"/>
     </row>
-    <row r="111" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C111" s="22"/>
       <c r="D111" s="22"/>
       <c r="E111" s="22"/>
@@ -3745,12 +3745,12 @@
       <c r="O111" s="20"/>
       <c r="P111" s="20"/>
     </row>
-    <row r="112" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C112" s="63" t="s">
+    <row r="112" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C112" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D112" s="63"/>
-      <c r="E112" s="63"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
       <c r="F112" s="22"/>
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
@@ -3763,15 +3763,15 @@
       <c r="O112" s="20"/>
       <c r="P112" s="20"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C113" s="22"/>
-      <c r="D113" s="38" t="s">
+      <c r="D113" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
+      <c r="E113" s="28"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="28"/>
+      <c r="H113" s="28"/>
       <c r="I113" s="22"/>
       <c r="J113" s="22"/>
       <c r="K113" s="22"/>
@@ -3781,34 +3781,34 @@
       <c r="O113" s="20"/>
       <c r="P113" s="20"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
-      <c r="E114" s="38" t="s">
+      <c r="E114" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="38"/>
-      <c r="K114" s="38"/>
-      <c r="L114" s="38"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="28"/>
+      <c r="K114" s="28"/>
+      <c r="L114" s="28"/>
       <c r="M114" s="22"/>
       <c r="N114" s="22"/>
       <c r="O114" s="20"/>
       <c r="P114" s="20"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C115" s="22"/>
-      <c r="D115" s="38" t="s">
+      <c r="D115" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E115" s="38"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22"/>
       <c r="L115" s="22"/>
@@ -3817,43 +3817,43 @@
       <c r="O115" s="20"/>
       <c r="P115" s="20"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C116" s="22"/>
-      <c r="D116" s="38" t="s">
+      <c r="D116" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="38"/>
-      <c r="K116" s="38"/>
-      <c r="L116" s="38"/>
-      <c r="M116" s="38"/>
-      <c r="N116" s="38"/>
+      <c r="E116" s="28"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="28"/>
+      <c r="H116" s="28"/>
+      <c r="I116" s="28"/>
+      <c r="J116" s="28"/>
+      <c r="K116" s="28"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="28"/>
       <c r="O116" s="20"/>
       <c r="P116" s="20"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C117" s="22"/>
-      <c r="D117" s="38" t="s">
+      <c r="D117" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E117" s="38"/>
-      <c r="F117" s="38"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-      <c r="I117" s="38"/>
-      <c r="J117" s="38"/>
-      <c r="K117" s="38"/>
-      <c r="L117" s="38"/>
-      <c r="M117" s="38"/>
-      <c r="N117" s="38"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="28"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="28"/>
+      <c r="N117" s="28"/>
       <c r="O117" s="20"/>
       <c r="P117" s="20"/>
     </row>
-    <row r="122" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
@@ -3872,64 +3872,64 @@
       <c r="Q122" s="14"/>
       <c r="R122" s="14"/>
     </row>
-    <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A124" s="30" t="s">
+    <row r="124" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="B124" s="30"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
-      <c r="F124" s="30"/>
-      <c r="G124" s="30"/>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A125" s="31" t="s">
+      <c r="B124" s="44"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="44"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A125" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="33"/>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="33"/>
+      <c r="E125" s="33"/>
+      <c r="F125" s="33"/>
+      <c r="G125" s="34"/>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B127" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C128" s="28" t="s">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C128" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
+      <c r="D128" s="27"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27"/>
+      <c r="H128" s="27"/>
       <c r="I128" s="21"/>
       <c r="J128" s="21"/>
       <c r="K128" s="21"/>
       <c r="L128" s="21"/>
       <c r="M128"/>
     </row>
-    <row r="129" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C129" s="21"/>
-      <c r="D129" s="29" t="s">
+      <c r="D129" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E129" s="29"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-      <c r="H129" s="29"/>
-      <c r="I129" s="29"/>
-      <c r="J129" s="29"/>
-      <c r="K129" s="29"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
+      <c r="G129" s="26"/>
+      <c r="H129" s="26"/>
+      <c r="I129" s="26"/>
+      <c r="J129" s="26"/>
+      <c r="K129" s="26"/>
       <c r="L129" s="21"/>
       <c r="M129"/>
     </row>
-    <row r="130" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C130" s="21"/>
       <c r="D130" s="21"/>
       <c r="E130" s="21"/>
@@ -3942,13 +3942,13 @@
       <c r="L130" s="21"/>
       <c r="M130"/>
     </row>
-    <row r="131" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C131" s="28" t="s">
+    <row r="131" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C131" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
+      <c r="D131" s="27"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
       <c r="G131" s="21"/>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
@@ -3957,12 +3957,12 @@
       <c r="L131" s="21"/>
       <c r="M131"/>
     </row>
-    <row r="132" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C132" s="21"/>
-      <c r="D132" s="29" t="s">
+      <c r="D132" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E132" s="29"/>
+      <c r="E132" s="26"/>
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
@@ -3972,16 +3972,16 @@
       <c r="L132" s="21"/>
       <c r="M132"/>
     </row>
-    <row r="133" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C133" s="21"/>
       <c r="D133" s="21"/>
       <c r="E133" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F133" s="28" t="s">
+      <c r="F133" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G133" s="28"/>
+      <c r="G133" s="27"/>
       <c r="H133" s="21"/>
       <c r="I133" s="21"/>
       <c r="J133" s="21"/>
@@ -3989,39 +3989,39 @@
       <c r="L133" s="21"/>
       <c r="M133"/>
     </row>
-    <row r="134" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C134" s="21"/>
       <c r="D134" s="21"/>
-      <c r="E134" s="29" t="s">
+      <c r="E134" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F134" s="29"/>
-      <c r="G134" s="29"/>
-      <c r="H134" s="29"/>
-      <c r="I134" s="29"/>
-      <c r="J134" s="29"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
+      <c r="I134" s="26"/>
+      <c r="J134" s="26"/>
       <c r="K134" s="21"/>
       <c r="L134" s="21"/>
       <c r="M134"/>
     </row>
-    <row r="135" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C135" s="21"/>
       <c r="D135" s="21"/>
       <c r="E135" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="F135" s="28" t="s">
+      <c r="F135" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="28"/>
-      <c r="K135" s="28"/>
+      <c r="G135" s="27"/>
+      <c r="H135" s="27"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
+      <c r="K135" s="27"/>
       <c r="L135" s="21"/>
       <c r="M135"/>
     </row>
-    <row r="136" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C136" s="21"/>
       <c r="D136" s="21"/>
       <c r="E136" s="21"/>
@@ -4034,12 +4034,12 @@
       <c r="L136" s="21"/>
       <c r="M136"/>
     </row>
-    <row r="137" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C137" s="28" t="s">
+    <row r="137" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C137" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
+      <c r="D137" s="27"/>
+      <c r="E137" s="27"/>
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
       <c r="H137" s="21"/>
@@ -4049,52 +4049,52 @@
       <c r="L137" s="21"/>
       <c r="M137"/>
     </row>
-    <row r="138" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C138" s="21"/>
-      <c r="D138" s="29" t="s">
+      <c r="D138" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E138" s="29"/>
-      <c r="F138" s="29"/>
-      <c r="G138" s="29"/>
-      <c r="H138" s="29"/>
-      <c r="I138" s="29"/>
-      <c r="J138" s="29"/>
-      <c r="K138" s="29"/>
+      <c r="E138" s="26"/>
+      <c r="F138" s="26"/>
+      <c r="G138" s="26"/>
+      <c r="H138" s="26"/>
+      <c r="I138" s="26"/>
+      <c r="J138" s="26"/>
+      <c r="K138" s="26"/>
       <c r="L138" s="21"/>
       <c r="M138"/>
     </row>
-    <row r="139" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C139" s="21"/>
-      <c r="D139" s="29" t="s">
+      <c r="D139" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-      <c r="H139" s="29"/>
-      <c r="I139" s="29"/>
-      <c r="J139" s="29"/>
-      <c r="K139" s="29"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26"/>
+      <c r="G139" s="26"/>
+      <c r="H139" s="26"/>
+      <c r="I139" s="26"/>
+      <c r="J139" s="26"/>
+      <c r="K139" s="26"/>
       <c r="L139" s="21"/>
       <c r="M139"/>
     </row>
-    <row r="140" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C140" s="21"/>
-      <c r="D140" s="29" t="s">
+      <c r="D140" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E140" s="29"/>
-      <c r="F140" s="29"/>
-      <c r="G140" s="29"/>
-      <c r="H140" s="29"/>
-      <c r="I140" s="29"/>
+      <c r="E140" s="26"/>
+      <c r="F140" s="26"/>
+      <c r="G140" s="26"/>
+      <c r="H140" s="26"/>
+      <c r="I140" s="26"/>
       <c r="J140" s="21"/>
       <c r="K140" s="21"/>
       <c r="L140" s="21"/>
       <c r="M140"/>
     </row>
-    <row r="141" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
       <c r="E141" s="21"/>
@@ -4107,13 +4107,13 @@
       <c r="L141" s="21"/>
       <c r="M141"/>
     </row>
-    <row r="142" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C142" s="28" t="s">
+    <row r="142" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C142" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
+      <c r="D142" s="27"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="27"/>
       <c r="G142" s="21"/>
       <c r="H142" s="21"/>
       <c r="I142" s="21"/>
@@ -4122,22 +4122,22 @@
       <c r="L142" s="21"/>
       <c r="M142"/>
     </row>
-    <row r="143" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C143" s="21"/>
-      <c r="D143" s="29" t="s">
+      <c r="D143" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E143" s="29"/>
-      <c r="F143" s="29"/>
-      <c r="G143" s="29"/>
-      <c r="H143" s="29"/>
-      <c r="I143" s="29"/>
-      <c r="J143" s="29"/>
-      <c r="K143" s="29"/>
-      <c r="L143" s="29"/>
+      <c r="E143" s="26"/>
+      <c r="F143" s="26"/>
+      <c r="G143" s="26"/>
+      <c r="H143" s="26"/>
+      <c r="I143" s="26"/>
+      <c r="J143" s="26"/>
+      <c r="K143" s="26"/>
+      <c r="L143" s="26"/>
       <c r="M143"/>
     </row>
-    <row r="146" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="14"/>
       <c r="C146" s="14"/>
       <c r="D146" s="14"/>
@@ -4156,38 +4156,38 @@
       <c r="Q146" s="14"/>
       <c r="R146" s="14"/>
     </row>
-    <row r="148" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A148" s="30" t="s">
+    <row r="148" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="30"/>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30"/>
-      <c r="G148" s="30"/>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A149" s="31" t="s">
+      <c r="B148" s="44"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A149" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="B149" s="32"/>
-      <c r="C149" s="32"/>
-      <c r="D149" s="32"/>
-      <c r="E149" s="32"/>
-      <c r="F149" s="32"/>
-      <c r="G149" s="33"/>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B149" s="33"/>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="34"/>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B151" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C152" s="26" t="s">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C152" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="D152" s="26"/>
+      <c r="D152" s="59"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
       <c r="G152" s="23"/>
@@ -4198,104 +4198,104 @@
       <c r="L152" s="23"/>
       <c r="M152" s="23"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C153" s="23"/>
-      <c r="D153" s="27" t="s">
+      <c r="D153" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E153" s="27"/>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="27"/>
-      <c r="K153" s="27"/>
-      <c r="L153" s="27"/>
-      <c r="M153" s="27"/>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E153" s="29"/>
+      <c r="F153" s="29"/>
+      <c r="G153" s="29"/>
+      <c r="H153" s="29"/>
+      <c r="I153" s="29"/>
+      <c r="J153" s="29"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="29"/>
+      <c r="M153" s="29"/>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C154" s="23"/>
-      <c r="D154" s="27" t="s">
+      <c r="D154" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="27"/>
+      <c r="E154" s="29"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="29"/>
       <c r="K154" s="23"/>
       <c r="L154" s="23"/>
       <c r="M154" s="23"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C155" s="23"/>
-      <c r="D155" s="27" t="s">
+      <c r="D155" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="27"/>
+      <c r="E155" s="29"/>
+      <c r="F155" s="29"/>
+      <c r="G155" s="29"/>
+      <c r="H155" s="29"/>
+      <c r="I155" s="29"/>
+      <c r="J155" s="29"/>
       <c r="K155" s="23"/>
       <c r="L155" s="23"/>
       <c r="M155" s="23"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C156" s="23"/>
-      <c r="D156" s="27" t="s">
+      <c r="D156" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="27"/>
-      <c r="K156" s="27"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
+      <c r="H156" s="29"/>
+      <c r="I156" s="29"/>
+      <c r="J156" s="29"/>
+      <c r="K156" s="29"/>
       <c r="L156" s="23"/>
       <c r="M156" s="23"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C157" s="23"/>
-      <c r="D157" s="27" t="s">
+      <c r="D157" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="27"/>
-      <c r="K157" s="27"/>
+      <c r="E157" s="29"/>
+      <c r="F157" s="29"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="29"/>
       <c r="L157" s="23"/>
       <c r="M157" s="23"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C158" s="23"/>
-      <c r="D158" s="27" t="s">
+      <c r="D158" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27"/>
-      <c r="K158" s="27"/>
+      <c r="E158" s="29"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="29"/>
+      <c r="H158" s="29"/>
+      <c r="I158" s="29"/>
+      <c r="J158" s="29"/>
+      <c r="K158" s="29"/>
       <c r="L158" s="23"/>
       <c r="M158" s="23"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C159" s="23"/>
-      <c r="D159" s="27" t="s">
+      <c r="D159" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
+      <c r="E159" s="29"/>
+      <c r="F159" s="29"/>
+      <c r="G159" s="29"/>
       <c r="H159" s="23"/>
       <c r="I159" s="23"/>
       <c r="J159" s="23"/>
@@ -4303,15 +4303,15 @@
       <c r="L159" s="23"/>
       <c r="M159" s="23"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C160" s="23"/>
-      <c r="D160" s="27" t="s">
+      <c r="D160" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
+      <c r="E160" s="29"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="29"/>
+      <c r="H160" s="29"/>
       <c r="I160" s="23"/>
       <c r="J160" s="23"/>
       <c r="K160" s="23"/>
@@ -4320,27 +4320,75 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="D139:K139"/>
-    <mergeCell ref="D140:I140"/>
-    <mergeCell ref="C142:F142"/>
-    <mergeCell ref="D143:L143"/>
-    <mergeCell ref="E134:J134"/>
-    <mergeCell ref="F135:K135"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="D138:K138"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D116:N116"/>
-    <mergeCell ref="D117:N117"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="E109:H109"/>
-    <mergeCell ref="E110:J110"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="E102:M102"/>
-    <mergeCell ref="E103:M103"/>
-    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="D153:M153"/>
+    <mergeCell ref="D154:J154"/>
+    <mergeCell ref="D155:J155"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="D158:K158"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="C79:L79"/>
+    <mergeCell ref="C82:K82"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:J75"/>
+    <mergeCell ref="E76:N76"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="A148:G148"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="A90:G90"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C128:H128"/>
+    <mergeCell ref="D129:K129"/>
+    <mergeCell ref="C131:F131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="E105:J105"/>
+    <mergeCell ref="A124:G124"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="D113:H113"/>
+    <mergeCell ref="E114:L114"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="D47:K48"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="U57:U60"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="U76:U77"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="E66:J66"/>
+    <mergeCell ref="E67:J67"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="E70:K70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="B62:M62"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y36:Z37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="P32:P33"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="Q32:Q33"/>
     <mergeCell ref="B39:F39"/>
@@ -4365,75 +4413,27 @@
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y36:Z37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="T32:T33"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="O32:O33"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="D47:K48"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="U57:U60"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="U76:U77"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="E66:J66"/>
-    <mergeCell ref="E67:J67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="E70:K70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="B62:M62"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="C79:L79"/>
-    <mergeCell ref="C82:K82"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F75:J75"/>
-    <mergeCell ref="E76:N76"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="A148:G148"/>
-    <mergeCell ref="A149:G149"/>
-    <mergeCell ref="A90:G90"/>
-    <mergeCell ref="A91:G91"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C95:J95"/>
-    <mergeCell ref="C128:H128"/>
-    <mergeCell ref="D129:K129"/>
-    <mergeCell ref="C131:F131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="E105:J105"/>
-    <mergeCell ref="A124:G124"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="D113:H113"/>
-    <mergeCell ref="E114:L114"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="D153:M153"/>
-    <mergeCell ref="D154:J154"/>
-    <mergeCell ref="D155:J155"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="D158:K158"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="D160:H160"/>
+    <mergeCell ref="D115:I115"/>
+    <mergeCell ref="D116:N116"/>
+    <mergeCell ref="D117:N117"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="E109:H109"/>
+    <mergeCell ref="E110:J110"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="E102:M102"/>
+    <mergeCell ref="E103:M103"/>
+    <mergeCell ref="E104:K104"/>
+    <mergeCell ref="D139:K139"/>
+    <mergeCell ref="D140:I140"/>
+    <mergeCell ref="C142:F142"/>
+    <mergeCell ref="D143:L143"/>
+    <mergeCell ref="E134:J134"/>
+    <mergeCell ref="F135:K135"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="D138:K138"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4452,13 +4452,13 @@
                     <xdr:col>11</xdr:col>
                     <xdr:colOff>228600</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>182880</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4478,9 +4478,9 @@
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4500,9 +4500,9 @@
                   </from>
                   <to>
                     <xdr:col>11</xdr:col>
-                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:colOff>563880</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4516,9 +4516,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>83820</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -4538,9 +4538,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>83820</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
@@ -4560,9 +4560,9 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>85725</xdr:colOff>
+                    <xdr:colOff>83820</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
